--- a/base.xlsx
+++ b/base.xlsx
@@ -2100,7 +2100,7 @@
       <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2143,12 +2143,6 @@
         <bgColor rgb="FF9900FF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF"/>
-        <bgColor rgb="FFFF00FF"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="5">
     <border/>
@@ -2182,7 +2176,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2320,7 +2314,7 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2372,9 +2366,6 @@
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -16663,7 +16654,7 @@
         <v>35</v>
       </c>
       <c r="U171" s="8" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="V171" s="21" t="s">
         <v>54</v>
@@ -16744,7 +16735,7 @@
         <v>35</v>
       </c>
       <c r="U172" s="8" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="V172" s="21" t="s">
         <v>54</v>
@@ -16825,7 +16816,7 @@
         <v>35</v>
       </c>
       <c r="U173" s="8" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="V173" s="21" t="s">
         <v>54</v>
@@ -16906,7 +16897,7 @@
         <v>35</v>
       </c>
       <c r="U174" s="8" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="V174" s="21" t="s">
         <v>142</v>
@@ -16987,7 +16978,7 @@
         <v>35</v>
       </c>
       <c r="U175" s="8" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="V175" s="21" t="s">
         <v>57</v>
@@ -17068,7 +17059,7 @@
         <v>35</v>
       </c>
       <c r="U176" s="8" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="V176" s="21" t="s">
         <v>57</v>
@@ -17149,7 +17140,7 @@
         <v>35</v>
       </c>
       <c r="U177" s="8" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="V177" s="21" t="s">
         <v>57</v>
@@ -17230,7 +17221,7 @@
         <v>35</v>
       </c>
       <c r="U178" s="8" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="V178" s="21" t="s">
         <v>142</v>
@@ -17311,7 +17302,7 @@
         <v>35</v>
       </c>
       <c r="U179" s="8" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="V179" s="21" t="s">
         <v>57</v>
@@ -22282,7 +22273,7 @@
       </c>
     </row>
     <row r="243" ht="14.25" customHeight="1">
-      <c r="B243" s="8" t="s">
+      <c r="B243" s="12" t="s">
         <v>342</v>
       </c>
       <c r="D243" s="8" t="s">
@@ -22359,7 +22350,7 @@
       </c>
     </row>
     <row r="244" ht="14.25" customHeight="1">
-      <c r="B244" s="8" t="s">
+      <c r="B244" s="12" t="s">
         <v>343</v>
       </c>
       <c r="D244" s="8" t="s">
@@ -22436,7 +22427,7 @@
       </c>
     </row>
     <row r="245" ht="14.25" customHeight="1">
-      <c r="B245" s="8" t="s">
+      <c r="B245" s="12" t="s">
         <v>344</v>
       </c>
       <c r="D245" s="8" t="s">
@@ -22513,7 +22504,7 @@
       </c>
     </row>
     <row r="246" ht="14.25" customHeight="1">
-      <c r="B246" s="8" t="s">
+      <c r="B246" s="12" t="s">
         <v>345</v>
       </c>
       <c r="D246" s="8" t="s">
@@ -22590,7 +22581,7 @@
       </c>
     </row>
     <row r="247" ht="14.25" customHeight="1">
-      <c r="B247" s="8" t="s">
+      <c r="B247" s="12" t="s">
         <v>346</v>
       </c>
       <c r="D247" s="8" t="s">
@@ -22667,7 +22658,7 @@
       </c>
     </row>
     <row r="248" ht="14.25" customHeight="1">
-      <c r="B248" s="30" t="s">
+      <c r="B248" s="12" t="s">
         <v>347</v>
       </c>
       <c r="D248" s="8" t="s">
@@ -22744,7 +22735,7 @@
       </c>
     </row>
     <row r="249" ht="14.25" customHeight="1">
-      <c r="B249" s="8" t="s">
+      <c r="B249" s="12" t="s">
         <v>348</v>
       </c>
       <c r="D249" s="8" t="s">
@@ -22821,7 +22812,7 @@
       </c>
     </row>
     <row r="250" ht="14.25" customHeight="1">
-      <c r="B250" s="8" t="s">
+      <c r="B250" s="12" t="s">
         <v>349</v>
       </c>
       <c r="D250" s="8" t="s">
@@ -22898,7 +22889,7 @@
       </c>
     </row>
     <row r="251" ht="14.25" customHeight="1">
-      <c r="B251" s="8" t="s">
+      <c r="B251" s="12" t="s">
         <v>350</v>
       </c>
       <c r="D251" s="8" t="s">
@@ -22975,7 +22966,7 @@
       </c>
     </row>
     <row r="252" ht="14.25" customHeight="1">
-      <c r="B252" s="8" t="s">
+      <c r="B252" s="12" t="s">
         <v>351</v>
       </c>
       <c r="D252" s="8" t="s">
@@ -23052,7 +23043,7 @@
       </c>
     </row>
     <row r="253" ht="14.25" customHeight="1">
-      <c r="B253" s="8" t="s">
+      <c r="B253" s="12" t="s">
         <v>352</v>
       </c>
       <c r="D253" s="8" t="s">
@@ -23129,7 +23120,7 @@
       </c>
     </row>
     <row r="254" ht="14.25" customHeight="1">
-      <c r="B254" s="30" t="s">
+      <c r="B254" s="12" t="s">
         <v>353</v>
       </c>
       <c r="D254" s="8" t="s">
@@ -23206,7 +23197,7 @@
       </c>
     </row>
     <row r="255" ht="14.25" customHeight="1">
-      <c r="B255" s="8" t="s">
+      <c r="B255" s="12" t="s">
         <v>354</v>
       </c>
       <c r="D255" s="8" t="s">
@@ -23283,7 +23274,7 @@
       </c>
     </row>
     <row r="256" ht="14.25" customHeight="1">
-      <c r="B256" s="8" t="s">
+      <c r="B256" s="12" t="s">
         <v>355</v>
       </c>
       <c r="D256" s="8" t="s">
@@ -23360,7 +23351,7 @@
       </c>
     </row>
     <row r="257" ht="14.25" customHeight="1">
-      <c r="B257" s="8" t="s">
+      <c r="B257" s="12" t="s">
         <v>356</v>
       </c>
       <c r="D257" s="8" t="s">
@@ -23437,7 +23428,7 @@
       </c>
     </row>
     <row r="258" ht="14.25" customHeight="1">
-      <c r="B258" s="8" t="s">
+      <c r="B258" s="12" t="s">
         <v>357</v>
       </c>
       <c r="D258" s="8" t="s">
@@ -23514,7 +23505,7 @@
       </c>
     </row>
     <row r="259" ht="14.25" customHeight="1">
-      <c r="B259" s="8" t="s">
+      <c r="B259" s="12" t="s">
         <v>358</v>
       </c>
       <c r="D259" s="8" t="s">
@@ -23591,7 +23582,7 @@
       </c>
     </row>
     <row r="260" ht="14.25" customHeight="1">
-      <c r="B260" s="8" t="s">
+      <c r="B260" s="12" t="s">
         <v>359</v>
       </c>
       <c r="D260" s="8" t="s">
@@ -23668,7 +23659,7 @@
       </c>
     </row>
     <row r="261" ht="14.25" customHeight="1">
-      <c r="B261" s="8" t="s">
+      <c r="B261" s="12" t="s">
         <v>360</v>
       </c>
       <c r="D261" s="8" t="s">
@@ -23745,7 +23736,7 @@
       </c>
     </row>
     <row r="262" ht="14.25" customHeight="1">
-      <c r="B262" s="30" t="s">
+      <c r="B262" s="12" t="s">
         <v>361</v>
       </c>
       <c r="D262" s="8" t="s">
@@ -23822,7 +23813,7 @@
       </c>
     </row>
     <row r="263" ht="14.25" customHeight="1">
-      <c r="B263" s="8" t="s">
+      <c r="B263" s="12" t="s">
         <v>362</v>
       </c>
       <c r="D263" s="8" t="s">
@@ -23899,7 +23890,7 @@
       </c>
     </row>
     <row r="264" ht="14.25" customHeight="1">
-      <c r="B264" s="8" t="s">
+      <c r="B264" s="12" t="s">
         <v>363</v>
       </c>
       <c r="D264" s="8" t="s">
@@ -23976,7 +23967,7 @@
       </c>
     </row>
     <row r="265" ht="14.25" customHeight="1">
-      <c r="B265" s="8" t="s">
+      <c r="B265" s="12" t="s">
         <v>364</v>
       </c>
       <c r="D265" s="8" t="s">
@@ -24053,7 +24044,7 @@
       </c>
     </row>
     <row r="266" ht="14.25" customHeight="1">
-      <c r="B266" s="8" t="s">
+      <c r="B266" s="12" t="s">
         <v>365</v>
       </c>
       <c r="D266" s="8" t="s">
@@ -24130,7 +24121,7 @@
       </c>
     </row>
     <row r="267" ht="14.25" customHeight="1">
-      <c r="B267" s="30" t="s">
+      <c r="B267" s="12" t="s">
         <v>366</v>
       </c>
       <c r="D267" s="8" t="s">
@@ -24207,7 +24198,7 @@
       </c>
     </row>
     <row r="268" ht="14.25" customHeight="1">
-      <c r="B268" s="8" t="s">
+      <c r="B268" s="12" t="s">
         <v>367</v>
       </c>
       <c r="D268" s="8" t="s">
@@ -24284,7 +24275,7 @@
       </c>
     </row>
     <row r="269" ht="14.25" customHeight="1">
-      <c r="B269" s="8" t="s">
+      <c r="B269" s="12" t="s">
         <v>368</v>
       </c>
       <c r="D269" s="8" t="s">
@@ -24361,7 +24352,7 @@
       </c>
     </row>
     <row r="270" ht="14.25" customHeight="1">
-      <c r="B270" s="8" t="s">
+      <c r="B270" s="12" t="s">
         <v>369</v>
       </c>
       <c r="D270" s="8" t="s">
@@ -24438,7 +24429,7 @@
       </c>
     </row>
     <row r="271" ht="14.25" customHeight="1">
-      <c r="B271" s="30" t="s">
+      <c r="B271" s="12" t="s">
         <v>370</v>
       </c>
       <c r="D271" s="8" t="s">
@@ -24515,7 +24506,7 @@
       </c>
     </row>
     <row r="272" ht="14.25" customHeight="1">
-      <c r="B272" s="8" t="s">
+      <c r="B272" s="12" t="s">
         <v>371</v>
       </c>
       <c r="D272" s="8" t="s">
@@ -24592,7 +24583,7 @@
       </c>
     </row>
     <row r="273" ht="14.25" customHeight="1">
-      <c r="B273" s="30" t="s">
+      <c r="B273" s="12" t="s">
         <v>372</v>
       </c>
       <c r="D273" s="8" t="s">
@@ -24669,7 +24660,7 @@
       </c>
     </row>
     <row r="274" ht="14.25" customHeight="1">
-      <c r="B274" s="8" t="s">
+      <c r="B274" s="12" t="s">
         <v>373</v>
       </c>
       <c r="D274" s="8" t="s">
@@ -24746,7 +24737,7 @@
       </c>
     </row>
     <row r="275" ht="14.25" customHeight="1">
-      <c r="B275" s="8" t="s">
+      <c r="B275" s="12" t="s">
         <v>374</v>
       </c>
       <c r="D275" s="8" t="s">
@@ -36472,8 +36463,8 @@
       <c r="AB423" s="8">
         <v>1.0</v>
       </c>
-      <c r="AD423" s="73"/>
-      <c r="AE423" s="73"/>
+      <c r="AD423" s="12"/>
+      <c r="AE423" s="12"/>
     </row>
     <row r="424" ht="14.25" customHeight="1">
       <c r="B424" s="8" t="s">
@@ -43469,1888 +43460,1888 @@
       <c r="AE512" s="54"/>
     </row>
     <row r="513" ht="14.25" customHeight="1">
-      <c r="V513" s="74"/>
+      <c r="V513" s="73"/>
     </row>
     <row r="514" ht="14.25" customHeight="1">
-      <c r="V514" s="74"/>
+      <c r="V514" s="73"/>
     </row>
     <row r="515" ht="14.25" customHeight="1">
-      <c r="V515" s="74"/>
+      <c r="V515" s="73"/>
     </row>
     <row r="516" ht="14.25" customHeight="1">
-      <c r="V516" s="74"/>
+      <c r="V516" s="73"/>
     </row>
     <row r="517" ht="14.25" customHeight="1">
-      <c r="V517" s="74"/>
+      <c r="V517" s="73"/>
     </row>
     <row r="518" ht="14.25" customHeight="1">
-      <c r="V518" s="74"/>
+      <c r="V518" s="73"/>
     </row>
     <row r="519" ht="14.25" customHeight="1">
-      <c r="V519" s="74"/>
+      <c r="V519" s="73"/>
     </row>
     <row r="520" ht="14.25" customHeight="1">
-      <c r="V520" s="74"/>
+      <c r="V520" s="73"/>
     </row>
     <row r="521" ht="14.25" customHeight="1">
-      <c r="V521" s="74"/>
+      <c r="V521" s="73"/>
     </row>
     <row r="522" ht="14.25" customHeight="1">
-      <c r="V522" s="74"/>
+      <c r="V522" s="73"/>
     </row>
     <row r="523" ht="14.25" customHeight="1">
-      <c r="V523" s="74"/>
+      <c r="V523" s="73"/>
     </row>
     <row r="524" ht="14.25" customHeight="1">
-      <c r="V524" s="74"/>
+      <c r="V524" s="73"/>
     </row>
     <row r="525" ht="14.25" customHeight="1">
-      <c r="V525" s="74"/>
+      <c r="V525" s="73"/>
     </row>
     <row r="526" ht="14.25" customHeight="1">
-      <c r="V526" s="74"/>
+      <c r="V526" s="73"/>
     </row>
     <row r="527" ht="14.25" customHeight="1">
-      <c r="V527" s="74"/>
+      <c r="V527" s="73"/>
     </row>
     <row r="528" ht="14.25" customHeight="1">
-      <c r="V528" s="74"/>
+      <c r="V528" s="73"/>
     </row>
     <row r="529" ht="14.25" customHeight="1">
-      <c r="V529" s="74"/>
+      <c r="V529" s="73"/>
     </row>
     <row r="530" ht="14.25" customHeight="1">
-      <c r="V530" s="74"/>
+      <c r="V530" s="73"/>
     </row>
     <row r="531" ht="14.25" customHeight="1">
-      <c r="V531" s="74"/>
+      <c r="V531" s="73"/>
     </row>
     <row r="532" ht="14.25" customHeight="1">
-      <c r="V532" s="74"/>
+      <c r="V532" s="73"/>
     </row>
     <row r="533" ht="14.25" customHeight="1">
-      <c r="V533" s="74"/>
+      <c r="V533" s="73"/>
     </row>
     <row r="534" ht="14.25" customHeight="1">
-      <c r="V534" s="74"/>
+      <c r="V534" s="73"/>
     </row>
     <row r="535" ht="14.25" customHeight="1">
-      <c r="V535" s="74"/>
+      <c r="V535" s="73"/>
     </row>
     <row r="536" ht="14.25" customHeight="1">
-      <c r="V536" s="74"/>
+      <c r="V536" s="73"/>
     </row>
     <row r="537" ht="14.25" customHeight="1">
-      <c r="V537" s="74"/>
+      <c r="V537" s="73"/>
     </row>
     <row r="538" ht="14.25" customHeight="1">
-      <c r="V538" s="74"/>
+      <c r="V538" s="73"/>
     </row>
     <row r="539" ht="14.25" customHeight="1">
-      <c r="V539" s="74"/>
+      <c r="V539" s="73"/>
     </row>
     <row r="540" ht="14.25" customHeight="1">
-      <c r="V540" s="74"/>
+      <c r="V540" s="73"/>
     </row>
     <row r="541" ht="14.25" customHeight="1">
-      <c r="V541" s="74"/>
+      <c r="V541" s="73"/>
     </row>
     <row r="542" ht="14.25" customHeight="1">
-      <c r="V542" s="74"/>
+      <c r="V542" s="73"/>
     </row>
     <row r="543" ht="14.25" customHeight="1">
-      <c r="V543" s="74"/>
+      <c r="V543" s="73"/>
     </row>
     <row r="544" ht="14.25" customHeight="1">
-      <c r="V544" s="74"/>
+      <c r="V544" s="73"/>
     </row>
     <row r="545" ht="14.25" customHeight="1">
-      <c r="V545" s="74"/>
+      <c r="V545" s="73"/>
     </row>
     <row r="546" ht="14.25" customHeight="1">
-      <c r="V546" s="74"/>
+      <c r="V546" s="73"/>
     </row>
     <row r="547" ht="14.25" customHeight="1">
-      <c r="V547" s="74"/>
+      <c r="V547" s="73"/>
     </row>
     <row r="548" ht="14.25" customHeight="1">
-      <c r="V548" s="74"/>
+      <c r="V548" s="73"/>
     </row>
     <row r="549" ht="14.25" customHeight="1">
-      <c r="V549" s="74"/>
+      <c r="V549" s="73"/>
     </row>
     <row r="550" ht="14.25" customHeight="1">
-      <c r="V550" s="74"/>
+      <c r="V550" s="73"/>
     </row>
     <row r="551" ht="14.25" customHeight="1">
-      <c r="V551" s="74"/>
+      <c r="V551" s="73"/>
     </row>
     <row r="552" ht="14.25" customHeight="1">
-      <c r="V552" s="74"/>
+      <c r="V552" s="73"/>
     </row>
     <row r="553" ht="14.25" customHeight="1">
-      <c r="V553" s="74"/>
+      <c r="V553" s="73"/>
     </row>
     <row r="554" ht="14.25" customHeight="1">
-      <c r="V554" s="74"/>
+      <c r="V554" s="73"/>
     </row>
     <row r="555" ht="14.25" customHeight="1">
-      <c r="V555" s="74"/>
+      <c r="V555" s="73"/>
     </row>
     <row r="556" ht="14.25" customHeight="1">
-      <c r="V556" s="74"/>
+      <c r="V556" s="73"/>
     </row>
     <row r="557" ht="14.25" customHeight="1">
-      <c r="V557" s="74"/>
+      <c r="V557" s="73"/>
     </row>
     <row r="558" ht="14.25" customHeight="1">
-      <c r="V558" s="74"/>
+      <c r="V558" s="73"/>
     </row>
     <row r="559" ht="14.25" customHeight="1">
-      <c r="V559" s="74"/>
+      <c r="V559" s="73"/>
     </row>
     <row r="560" ht="14.25" customHeight="1">
-      <c r="V560" s="74"/>
+      <c r="V560" s="73"/>
     </row>
     <row r="561" ht="14.25" customHeight="1">
-      <c r="V561" s="74"/>
+      <c r="V561" s="73"/>
     </row>
     <row r="562" ht="14.25" customHeight="1">
-      <c r="V562" s="74"/>
+      <c r="V562" s="73"/>
     </row>
     <row r="563" ht="14.25" customHeight="1">
-      <c r="V563" s="74"/>
+      <c r="V563" s="73"/>
     </row>
     <row r="564" ht="14.25" customHeight="1">
-      <c r="V564" s="74"/>
+      <c r="V564" s="73"/>
     </row>
     <row r="565" ht="14.25" customHeight="1">
-      <c r="V565" s="74"/>
+      <c r="V565" s="73"/>
     </row>
     <row r="566" ht="14.25" customHeight="1">
-      <c r="V566" s="74"/>
+      <c r="V566" s="73"/>
     </row>
     <row r="567" ht="14.25" customHeight="1">
-      <c r="V567" s="74"/>
+      <c r="V567" s="73"/>
     </row>
     <row r="568" ht="14.25" customHeight="1">
-      <c r="V568" s="74"/>
+      <c r="V568" s="73"/>
     </row>
     <row r="569" ht="14.25" customHeight="1">
-      <c r="V569" s="74"/>
+      <c r="V569" s="73"/>
     </row>
     <row r="570" ht="14.25" customHeight="1">
-      <c r="V570" s="74"/>
+      <c r="V570" s="73"/>
     </row>
     <row r="571" ht="14.25" customHeight="1">
-      <c r="V571" s="74"/>
+      <c r="V571" s="73"/>
     </row>
     <row r="572" ht="14.25" customHeight="1">
-      <c r="V572" s="74"/>
+      <c r="V572" s="73"/>
     </row>
     <row r="573" ht="14.25" customHeight="1">
-      <c r="V573" s="74"/>
+      <c r="V573" s="73"/>
     </row>
     <row r="574" ht="14.25" customHeight="1">
-      <c r="V574" s="74"/>
+      <c r="V574" s="73"/>
     </row>
     <row r="575" ht="14.25" customHeight="1">
-      <c r="V575" s="74"/>
+      <c r="V575" s="73"/>
     </row>
     <row r="576" ht="14.25" customHeight="1">
-      <c r="V576" s="74"/>
+      <c r="V576" s="73"/>
     </row>
     <row r="577" ht="14.25" customHeight="1">
-      <c r="V577" s="74"/>
+      <c r="V577" s="73"/>
     </row>
     <row r="578" ht="14.25" customHeight="1">
-      <c r="V578" s="74"/>
+      <c r="V578" s="73"/>
     </row>
     <row r="579" ht="14.25" customHeight="1">
-      <c r="V579" s="74"/>
+      <c r="V579" s="73"/>
     </row>
     <row r="580" ht="14.25" customHeight="1">
-      <c r="V580" s="74"/>
+      <c r="V580" s="73"/>
     </row>
     <row r="581" ht="14.25" customHeight="1">
-      <c r="V581" s="74"/>
+      <c r="V581" s="73"/>
     </row>
     <row r="582" ht="14.25" customHeight="1">
-      <c r="V582" s="74"/>
+      <c r="V582" s="73"/>
     </row>
     <row r="583" ht="14.25" customHeight="1">
-      <c r="V583" s="74"/>
+      <c r="V583" s="73"/>
     </row>
     <row r="584" ht="14.25" customHeight="1">
-      <c r="V584" s="74"/>
+      <c r="V584" s="73"/>
     </row>
     <row r="585" ht="14.25" customHeight="1">
-      <c r="V585" s="74"/>
+      <c r="V585" s="73"/>
     </row>
     <row r="586" ht="14.25" customHeight="1">
-      <c r="V586" s="74"/>
+      <c r="V586" s="73"/>
     </row>
     <row r="587" ht="14.25" customHeight="1">
-      <c r="V587" s="74"/>
+      <c r="V587" s="73"/>
     </row>
     <row r="588" ht="14.25" customHeight="1">
-      <c r="V588" s="74"/>
+      <c r="V588" s="73"/>
     </row>
     <row r="589" ht="14.25" customHeight="1">
-      <c r="V589" s="74"/>
+      <c r="V589" s="73"/>
     </row>
     <row r="590" ht="14.25" customHeight="1">
-      <c r="V590" s="74"/>
+      <c r="V590" s="73"/>
     </row>
     <row r="591" ht="14.25" customHeight="1">
-      <c r="V591" s="74"/>
+      <c r="V591" s="73"/>
     </row>
     <row r="592" ht="14.25" customHeight="1">
-      <c r="V592" s="74"/>
+      <c r="V592" s="73"/>
     </row>
     <row r="593" ht="14.25" customHeight="1">
-      <c r="V593" s="74"/>
+      <c r="V593" s="73"/>
     </row>
     <row r="594" ht="14.25" customHeight="1">
-      <c r="V594" s="74"/>
+      <c r="V594" s="73"/>
     </row>
     <row r="595" ht="14.25" customHeight="1">
-      <c r="V595" s="74"/>
+      <c r="V595" s="73"/>
     </row>
     <row r="596" ht="14.25" customHeight="1">
-      <c r="V596" s="74"/>
+      <c r="V596" s="73"/>
     </row>
     <row r="597" ht="14.25" customHeight="1">
-      <c r="V597" s="74"/>
+      <c r="V597" s="73"/>
     </row>
     <row r="598" ht="14.25" customHeight="1">
-      <c r="V598" s="74"/>
+      <c r="V598" s="73"/>
     </row>
     <row r="599" ht="14.25" customHeight="1">
-      <c r="V599" s="74"/>
+      <c r="V599" s="73"/>
     </row>
     <row r="600" ht="14.25" customHeight="1">
-      <c r="V600" s="74"/>
+      <c r="V600" s="73"/>
     </row>
     <row r="601" ht="14.25" customHeight="1">
-      <c r="V601" s="74"/>
+      <c r="V601" s="73"/>
     </row>
     <row r="602" ht="14.25" customHeight="1">
-      <c r="V602" s="74"/>
+      <c r="V602" s="73"/>
     </row>
     <row r="603" ht="14.25" customHeight="1">
-      <c r="V603" s="74"/>
+      <c r="V603" s="73"/>
     </row>
     <row r="604" ht="14.25" customHeight="1">
-      <c r="V604" s="74"/>
+      <c r="V604" s="73"/>
     </row>
     <row r="605" ht="14.25" customHeight="1">
-      <c r="V605" s="74"/>
+      <c r="V605" s="73"/>
     </row>
     <row r="606" ht="14.25" customHeight="1">
-      <c r="V606" s="74"/>
+      <c r="V606" s="73"/>
     </row>
     <row r="607" ht="14.25" customHeight="1">
-      <c r="V607" s="74"/>
+      <c r="V607" s="73"/>
     </row>
     <row r="608" ht="14.25" customHeight="1">
-      <c r="V608" s="74"/>
+      <c r="V608" s="73"/>
     </row>
     <row r="609" ht="14.25" customHeight="1">
-      <c r="V609" s="74"/>
+      <c r="V609" s="73"/>
     </row>
     <row r="610" ht="14.25" customHeight="1">
-      <c r="V610" s="74"/>
+      <c r="V610" s="73"/>
     </row>
     <row r="611" ht="14.25" customHeight="1">
-      <c r="V611" s="74"/>
+      <c r="V611" s="73"/>
     </row>
     <row r="612" ht="14.25" customHeight="1">
-      <c r="V612" s="74"/>
+      <c r="V612" s="73"/>
     </row>
     <row r="613" ht="14.25" customHeight="1">
-      <c r="V613" s="74"/>
+      <c r="V613" s="73"/>
     </row>
     <row r="614" ht="14.25" customHeight="1">
-      <c r="V614" s="74"/>
+      <c r="V614" s="73"/>
     </row>
     <row r="615" ht="14.25" customHeight="1">
-      <c r="V615" s="74"/>
+      <c r="V615" s="73"/>
     </row>
     <row r="616" ht="14.25" customHeight="1">
-      <c r="V616" s="74"/>
+      <c r="V616" s="73"/>
     </row>
     <row r="617" ht="14.25" customHeight="1">
-      <c r="V617" s="74"/>
+      <c r="V617" s="73"/>
     </row>
     <row r="618" ht="14.25" customHeight="1">
-      <c r="V618" s="74"/>
+      <c r="V618" s="73"/>
     </row>
     <row r="619" ht="14.25" customHeight="1">
-      <c r="V619" s="74"/>
+      <c r="V619" s="73"/>
     </row>
     <row r="620" ht="14.25" customHeight="1">
-      <c r="V620" s="74"/>
+      <c r="V620" s="73"/>
     </row>
     <row r="621" ht="14.25" customHeight="1">
-      <c r="V621" s="74"/>
+      <c r="V621" s="73"/>
     </row>
     <row r="622" ht="14.25" customHeight="1">
-      <c r="V622" s="74"/>
+      <c r="V622" s="73"/>
     </row>
     <row r="623" ht="14.25" customHeight="1">
-      <c r="V623" s="74"/>
+      <c r="V623" s="73"/>
     </row>
     <row r="624" ht="14.25" customHeight="1">
-      <c r="V624" s="74"/>
+      <c r="V624" s="73"/>
     </row>
     <row r="625" ht="14.25" customHeight="1">
-      <c r="V625" s="74"/>
+      <c r="V625" s="73"/>
     </row>
     <row r="626" ht="14.25" customHeight="1">
-      <c r="V626" s="74"/>
+      <c r="V626" s="73"/>
     </row>
     <row r="627" ht="14.25" customHeight="1">
-      <c r="V627" s="74"/>
+      <c r="V627" s="73"/>
     </row>
     <row r="628" ht="14.25" customHeight="1">
-      <c r="V628" s="74"/>
+      <c r="V628" s="73"/>
     </row>
     <row r="629" ht="14.25" customHeight="1">
-      <c r="V629" s="74"/>
+      <c r="V629" s="73"/>
     </row>
     <row r="630" ht="14.25" customHeight="1">
-      <c r="V630" s="74"/>
+      <c r="V630" s="73"/>
     </row>
     <row r="631" ht="14.25" customHeight="1">
-      <c r="V631" s="74"/>
+      <c r="V631" s="73"/>
     </row>
     <row r="632" ht="14.25" customHeight="1">
-      <c r="V632" s="74"/>
+      <c r="V632" s="73"/>
     </row>
     <row r="633" ht="14.25" customHeight="1">
-      <c r="V633" s="74"/>
+      <c r="V633" s="73"/>
     </row>
     <row r="634" ht="14.25" customHeight="1">
-      <c r="V634" s="74"/>
+      <c r="V634" s="73"/>
     </row>
     <row r="635" ht="14.25" customHeight="1">
-      <c r="V635" s="74"/>
+      <c r="V635" s="73"/>
     </row>
     <row r="636" ht="14.25" customHeight="1">
-      <c r="V636" s="74"/>
+      <c r="V636" s="73"/>
     </row>
     <row r="637" ht="14.25" customHeight="1">
-      <c r="V637" s="74"/>
+      <c r="V637" s="73"/>
     </row>
     <row r="638" ht="14.25" customHeight="1">
-      <c r="V638" s="74"/>
+      <c r="V638" s="73"/>
     </row>
     <row r="639" ht="14.25" customHeight="1">
-      <c r="V639" s="74"/>
+      <c r="V639" s="73"/>
     </row>
     <row r="640" ht="14.25" customHeight="1">
-      <c r="V640" s="74"/>
+      <c r="V640" s="73"/>
     </row>
     <row r="641" ht="14.25" customHeight="1">
-      <c r="V641" s="74"/>
+      <c r="V641" s="73"/>
     </row>
     <row r="642" ht="14.25" customHeight="1">
-      <c r="V642" s="74"/>
+      <c r="V642" s="73"/>
     </row>
     <row r="643" ht="14.25" customHeight="1">
-      <c r="V643" s="74"/>
+      <c r="V643" s="73"/>
     </row>
     <row r="644" ht="14.25" customHeight="1">
-      <c r="V644" s="74"/>
+      <c r="V644" s="73"/>
     </row>
     <row r="645" ht="14.25" customHeight="1">
-      <c r="V645" s="74"/>
+      <c r="V645" s="73"/>
     </row>
     <row r="646" ht="14.25" customHeight="1">
-      <c r="V646" s="74"/>
+      <c r="V646" s="73"/>
     </row>
     <row r="647" ht="14.25" customHeight="1">
-      <c r="V647" s="74"/>
+      <c r="V647" s="73"/>
     </row>
     <row r="648" ht="14.25" customHeight="1">
-      <c r="V648" s="74"/>
+      <c r="V648" s="73"/>
     </row>
     <row r="649" ht="14.25" customHeight="1">
-      <c r="V649" s="74"/>
+      <c r="V649" s="73"/>
     </row>
     <row r="650" ht="14.25" customHeight="1">
-      <c r="V650" s="74"/>
+      <c r="V650" s="73"/>
     </row>
     <row r="651" ht="14.25" customHeight="1">
-      <c r="V651" s="74"/>
+      <c r="V651" s="73"/>
     </row>
     <row r="652" ht="14.25" customHeight="1">
-      <c r="V652" s="74"/>
+      <c r="V652" s="73"/>
     </row>
     <row r="653" ht="14.25" customHeight="1">
-      <c r="V653" s="74"/>
+      <c r="V653" s="73"/>
     </row>
     <row r="654" ht="14.25" customHeight="1">
-      <c r="V654" s="74"/>
+      <c r="V654" s="73"/>
     </row>
     <row r="655" ht="14.25" customHeight="1">
-      <c r="V655" s="74"/>
+      <c r="V655" s="73"/>
     </row>
     <row r="656" ht="14.25" customHeight="1">
-      <c r="V656" s="74"/>
+      <c r="V656" s="73"/>
     </row>
     <row r="657" ht="14.25" customHeight="1">
-      <c r="V657" s="74"/>
+      <c r="V657" s="73"/>
     </row>
     <row r="658" ht="14.25" customHeight="1">
-      <c r="V658" s="74"/>
+      <c r="V658" s="73"/>
     </row>
     <row r="659" ht="14.25" customHeight="1">
-      <c r="V659" s="74"/>
+      <c r="V659" s="73"/>
     </row>
     <row r="660" ht="14.25" customHeight="1">
-      <c r="V660" s="74"/>
+      <c r="V660" s="73"/>
     </row>
     <row r="661" ht="14.25" customHeight="1">
-      <c r="V661" s="74"/>
+      <c r="V661" s="73"/>
     </row>
     <row r="662" ht="14.25" customHeight="1">
-      <c r="V662" s="74"/>
+      <c r="V662" s="73"/>
     </row>
     <row r="663" ht="14.25" customHeight="1">
-      <c r="V663" s="74"/>
+      <c r="V663" s="73"/>
     </row>
     <row r="664" ht="14.25" customHeight="1">
-      <c r="V664" s="74"/>
+      <c r="V664" s="73"/>
     </row>
     <row r="665" ht="14.25" customHeight="1">
-      <c r="V665" s="74"/>
+      <c r="V665" s="73"/>
     </row>
     <row r="666" ht="14.25" customHeight="1">
-      <c r="V666" s="74"/>
+      <c r="V666" s="73"/>
     </row>
     <row r="667" ht="14.25" customHeight="1">
-      <c r="V667" s="74"/>
+      <c r="V667" s="73"/>
     </row>
     <row r="668" ht="14.25" customHeight="1">
-      <c r="V668" s="74"/>
+      <c r="V668" s="73"/>
     </row>
     <row r="669" ht="14.25" customHeight="1">
-      <c r="V669" s="74"/>
+      <c r="V669" s="73"/>
     </row>
     <row r="670" ht="14.25" customHeight="1">
-      <c r="V670" s="74"/>
+      <c r="V670" s="73"/>
     </row>
     <row r="671" ht="14.25" customHeight="1">
-      <c r="V671" s="74"/>
+      <c r="V671" s="73"/>
     </row>
     <row r="672" ht="14.25" customHeight="1">
-      <c r="V672" s="74"/>
+      <c r="V672" s="73"/>
     </row>
     <row r="673" ht="14.25" customHeight="1">
-      <c r="V673" s="74"/>
+      <c r="V673" s="73"/>
     </row>
     <row r="674" ht="14.25" customHeight="1">
-      <c r="V674" s="74"/>
+      <c r="V674" s="73"/>
     </row>
     <row r="675" ht="14.25" customHeight="1">
-      <c r="V675" s="74"/>
+      <c r="V675" s="73"/>
     </row>
     <row r="676" ht="14.25" customHeight="1">
-      <c r="V676" s="74"/>
+      <c r="V676" s="73"/>
     </row>
     <row r="677" ht="14.25" customHeight="1">
-      <c r="V677" s="74"/>
+      <c r="V677" s="73"/>
     </row>
     <row r="678" ht="14.25" customHeight="1">
-      <c r="V678" s="74"/>
+      <c r="V678" s="73"/>
     </row>
     <row r="679" ht="14.25" customHeight="1">
-      <c r="V679" s="74"/>
+      <c r="V679" s="73"/>
     </row>
     <row r="680" ht="14.25" customHeight="1">
-      <c r="V680" s="74"/>
+      <c r="V680" s="73"/>
     </row>
     <row r="681" ht="14.25" customHeight="1">
-      <c r="V681" s="74"/>
+      <c r="V681" s="73"/>
     </row>
     <row r="682" ht="14.25" customHeight="1">
-      <c r="V682" s="74"/>
+      <c r="V682" s="73"/>
     </row>
     <row r="683" ht="14.25" customHeight="1">
-      <c r="V683" s="74"/>
+      <c r="V683" s="73"/>
     </row>
     <row r="684" ht="14.25" customHeight="1">
-      <c r="V684" s="74"/>
+      <c r="V684" s="73"/>
     </row>
     <row r="685" ht="14.25" customHeight="1">
-      <c r="V685" s="74"/>
+      <c r="V685" s="73"/>
     </row>
     <row r="686" ht="14.25" customHeight="1">
-      <c r="V686" s="74"/>
+      <c r="V686" s="73"/>
     </row>
     <row r="687" ht="14.25" customHeight="1">
-      <c r="V687" s="74"/>
+      <c r="V687" s="73"/>
     </row>
     <row r="688" ht="14.25" customHeight="1">
-      <c r="V688" s="74"/>
+      <c r="V688" s="73"/>
     </row>
     <row r="689" ht="14.25" customHeight="1">
-      <c r="V689" s="74"/>
+      <c r="V689" s="73"/>
     </row>
     <row r="690" ht="14.25" customHeight="1">
-      <c r="V690" s="74"/>
+      <c r="V690" s="73"/>
     </row>
     <row r="691" ht="14.25" customHeight="1">
-      <c r="V691" s="74"/>
+      <c r="V691" s="73"/>
     </row>
     <row r="692" ht="14.25" customHeight="1">
-      <c r="V692" s="74"/>
+      <c r="V692" s="73"/>
     </row>
     <row r="693" ht="14.25" customHeight="1">
-      <c r="V693" s="74"/>
+      <c r="V693" s="73"/>
     </row>
     <row r="694" ht="14.25" customHeight="1">
-      <c r="V694" s="74"/>
+      <c r="V694" s="73"/>
     </row>
     <row r="695" ht="14.25" customHeight="1">
-      <c r="V695" s="74"/>
+      <c r="V695" s="73"/>
     </row>
     <row r="696" ht="14.25" customHeight="1">
-      <c r="V696" s="74"/>
+      <c r="V696" s="73"/>
     </row>
     <row r="697" ht="14.25" customHeight="1">
-      <c r="V697" s="74"/>
+      <c r="V697" s="73"/>
     </row>
     <row r="698" ht="14.25" customHeight="1">
-      <c r="V698" s="74"/>
+      <c r="V698" s="73"/>
     </row>
     <row r="699" ht="14.25" customHeight="1">
-      <c r="V699" s="74"/>
+      <c r="V699" s="73"/>
     </row>
     <row r="700" ht="14.25" customHeight="1">
-      <c r="V700" s="74"/>
+      <c r="V700" s="73"/>
     </row>
     <row r="701" ht="14.25" customHeight="1">
-      <c r="V701" s="74"/>
+      <c r="V701" s="73"/>
     </row>
     <row r="702" ht="14.25" customHeight="1">
-      <c r="V702" s="74"/>
+      <c r="V702" s="73"/>
     </row>
     <row r="703" ht="14.25" customHeight="1">
-      <c r="V703" s="74"/>
+      <c r="V703" s="73"/>
     </row>
     <row r="704" ht="14.25" customHeight="1">
-      <c r="V704" s="74"/>
+      <c r="V704" s="73"/>
     </row>
     <row r="705" ht="14.25" customHeight="1">
-      <c r="V705" s="74"/>
+      <c r="V705" s="73"/>
     </row>
     <row r="706" ht="14.25" customHeight="1">
-      <c r="V706" s="74"/>
+      <c r="V706" s="73"/>
     </row>
     <row r="707" ht="14.25" customHeight="1">
-      <c r="V707" s="74"/>
+      <c r="V707" s="73"/>
     </row>
     <row r="708" ht="14.25" customHeight="1">
-      <c r="V708" s="74"/>
+      <c r="V708" s="73"/>
     </row>
     <row r="709" ht="14.25" customHeight="1">
-      <c r="V709" s="74"/>
+      <c r="V709" s="73"/>
     </row>
     <row r="710" ht="14.25" customHeight="1">
-      <c r="V710" s="74"/>
+      <c r="V710" s="73"/>
     </row>
     <row r="711" ht="14.25" customHeight="1">
-      <c r="V711" s="74"/>
+      <c r="V711" s="73"/>
     </row>
     <row r="712" ht="14.25" customHeight="1">
-      <c r="V712" s="74"/>
+      <c r="V712" s="73"/>
     </row>
     <row r="713" ht="14.25" customHeight="1">
-      <c r="V713" s="74"/>
+      <c r="V713" s="73"/>
     </row>
     <row r="714" ht="14.25" customHeight="1">
-      <c r="V714" s="74"/>
+      <c r="V714" s="73"/>
     </row>
     <row r="715" ht="14.25" customHeight="1">
-      <c r="V715" s="74"/>
+      <c r="V715" s="73"/>
     </row>
     <row r="716" ht="14.25" customHeight="1">
-      <c r="V716" s="74"/>
+      <c r="V716" s="73"/>
     </row>
     <row r="717" ht="14.25" customHeight="1">
-      <c r="V717" s="74"/>
+      <c r="V717" s="73"/>
     </row>
     <row r="718" ht="14.25" customHeight="1">
-      <c r="V718" s="74"/>
+      <c r="V718" s="73"/>
     </row>
     <row r="719" ht="14.25" customHeight="1">
-      <c r="V719" s="74"/>
+      <c r="V719" s="73"/>
     </row>
     <row r="720" ht="14.25" customHeight="1">
-      <c r="V720" s="74"/>
+      <c r="V720" s="73"/>
     </row>
     <row r="721" ht="14.25" customHeight="1">
-      <c r="V721" s="74"/>
+      <c r="V721" s="73"/>
     </row>
     <row r="722" ht="14.25" customHeight="1">
-      <c r="V722" s="74"/>
+      <c r="V722" s="73"/>
     </row>
     <row r="723" ht="14.25" customHeight="1">
-      <c r="V723" s="74"/>
+      <c r="V723" s="73"/>
     </row>
     <row r="724" ht="14.25" customHeight="1">
-      <c r="V724" s="74"/>
+      <c r="V724" s="73"/>
     </row>
     <row r="725" ht="14.25" customHeight="1">
-      <c r="V725" s="74"/>
+      <c r="V725" s="73"/>
     </row>
     <row r="726" ht="14.25" customHeight="1">
-      <c r="V726" s="74"/>
+      <c r="V726" s="73"/>
     </row>
     <row r="727" ht="14.25" customHeight="1">
-      <c r="V727" s="74"/>
+      <c r="V727" s="73"/>
     </row>
     <row r="728" ht="14.25" customHeight="1">
-      <c r="V728" s="74"/>
+      <c r="V728" s="73"/>
     </row>
     <row r="729" ht="14.25" customHeight="1">
-      <c r="V729" s="74"/>
+      <c r="V729" s="73"/>
     </row>
     <row r="730" ht="14.25" customHeight="1">
-      <c r="V730" s="74"/>
+      <c r="V730" s="73"/>
     </row>
     <row r="731" ht="14.25" customHeight="1">
-      <c r="V731" s="74"/>
+      <c r="V731" s="73"/>
     </row>
     <row r="732" ht="14.25" customHeight="1">
-      <c r="V732" s="74"/>
+      <c r="V732" s="73"/>
     </row>
     <row r="733" ht="14.25" customHeight="1">
-      <c r="V733" s="74"/>
+      <c r="V733" s="73"/>
     </row>
     <row r="734" ht="14.25" customHeight="1">
-      <c r="V734" s="74"/>
+      <c r="V734" s="73"/>
     </row>
     <row r="735" ht="14.25" customHeight="1">
-      <c r="V735" s="74"/>
+      <c r="V735" s="73"/>
     </row>
     <row r="736" ht="14.25" customHeight="1">
-      <c r="V736" s="74"/>
+      <c r="V736" s="73"/>
     </row>
     <row r="737" ht="14.25" customHeight="1">
-      <c r="V737" s="74"/>
+      <c r="V737" s="73"/>
     </row>
     <row r="738" ht="14.25" customHeight="1">
-      <c r="V738" s="74"/>
+      <c r="V738" s="73"/>
     </row>
     <row r="739" ht="14.25" customHeight="1">
-      <c r="V739" s="74"/>
+      <c r="V739" s="73"/>
     </row>
     <row r="740" ht="14.25" customHeight="1">
-      <c r="V740" s="74"/>
+      <c r="V740" s="73"/>
     </row>
     <row r="741" ht="14.25" customHeight="1">
-      <c r="V741" s="74"/>
+      <c r="V741" s="73"/>
     </row>
     <row r="742" ht="14.25" customHeight="1">
-      <c r="V742" s="74"/>
+      <c r="V742" s="73"/>
     </row>
     <row r="743" ht="14.25" customHeight="1">
-      <c r="V743" s="74"/>
+      <c r="V743" s="73"/>
     </row>
     <row r="744" ht="14.25" customHeight="1">
-      <c r="V744" s="74"/>
+      <c r="V744" s="73"/>
     </row>
     <row r="745" ht="14.25" customHeight="1">
-      <c r="V745" s="74"/>
+      <c r="V745" s="73"/>
     </row>
     <row r="746" ht="14.25" customHeight="1">
-      <c r="V746" s="74"/>
+      <c r="V746" s="73"/>
     </row>
     <row r="747" ht="14.25" customHeight="1">
-      <c r="V747" s="74"/>
+      <c r="V747" s="73"/>
     </row>
     <row r="748" ht="14.25" customHeight="1">
-      <c r="V748" s="74"/>
+      <c r="V748" s="73"/>
     </row>
     <row r="749" ht="14.25" customHeight="1">
-      <c r="V749" s="74"/>
+      <c r="V749" s="73"/>
     </row>
     <row r="750" ht="14.25" customHeight="1">
-      <c r="V750" s="74"/>
+      <c r="V750" s="73"/>
     </row>
     <row r="751" ht="14.25" customHeight="1">
-      <c r="V751" s="74"/>
+      <c r="V751" s="73"/>
     </row>
     <row r="752" ht="14.25" customHeight="1">
-      <c r="V752" s="74"/>
+      <c r="V752" s="73"/>
     </row>
     <row r="753" ht="14.25" customHeight="1">
-      <c r="V753" s="74"/>
+      <c r="V753" s="73"/>
     </row>
     <row r="754" ht="14.25" customHeight="1">
-      <c r="V754" s="74"/>
+      <c r="V754" s="73"/>
     </row>
     <row r="755" ht="14.25" customHeight="1">
-      <c r="V755" s="74"/>
+      <c r="V755" s="73"/>
     </row>
     <row r="756" ht="14.25" customHeight="1">
-      <c r="V756" s="74"/>
+      <c r="V756" s="73"/>
     </row>
     <row r="757" ht="14.25" customHeight="1">
-      <c r="V757" s="74"/>
+      <c r="V757" s="73"/>
     </row>
     <row r="758" ht="14.25" customHeight="1">
-      <c r="V758" s="74"/>
+      <c r="V758" s="73"/>
     </row>
     <row r="759" ht="14.25" customHeight="1">
-      <c r="V759" s="74"/>
+      <c r="V759" s="73"/>
     </row>
     <row r="760" ht="14.25" customHeight="1">
-      <c r="V760" s="74"/>
+      <c r="V760" s="73"/>
     </row>
     <row r="761" ht="14.25" customHeight="1">
-      <c r="V761" s="74"/>
+      <c r="V761" s="73"/>
     </row>
     <row r="762" ht="14.25" customHeight="1">
-      <c r="V762" s="74"/>
+      <c r="V762" s="73"/>
     </row>
     <row r="763" ht="14.25" customHeight="1">
-      <c r="V763" s="74"/>
+      <c r="V763" s="73"/>
     </row>
     <row r="764" ht="14.25" customHeight="1">
-      <c r="V764" s="74"/>
+      <c r="V764" s="73"/>
     </row>
     <row r="765" ht="14.25" customHeight="1">
-      <c r="V765" s="74"/>
+      <c r="V765" s="73"/>
     </row>
     <row r="766" ht="14.25" customHeight="1">
-      <c r="V766" s="74"/>
+      <c r="V766" s="73"/>
     </row>
     <row r="767" ht="14.25" customHeight="1">
-      <c r="V767" s="74"/>
+      <c r="V767" s="73"/>
     </row>
     <row r="768" ht="14.25" customHeight="1">
-      <c r="V768" s="74"/>
+      <c r="V768" s="73"/>
     </row>
     <row r="769" ht="14.25" customHeight="1">
-      <c r="V769" s="74"/>
+      <c r="V769" s="73"/>
     </row>
     <row r="770" ht="14.25" customHeight="1">
-      <c r="V770" s="74"/>
+      <c r="V770" s="73"/>
     </row>
     <row r="771" ht="14.25" customHeight="1">
-      <c r="V771" s="74"/>
+      <c r="V771" s="73"/>
     </row>
     <row r="772" ht="14.25" customHeight="1">
-      <c r="V772" s="74"/>
+      <c r="V772" s="73"/>
     </row>
     <row r="773" ht="14.25" customHeight="1">
-      <c r="V773" s="74"/>
+      <c r="V773" s="73"/>
     </row>
     <row r="774" ht="14.25" customHeight="1">
-      <c r="V774" s="74"/>
+      <c r="V774" s="73"/>
     </row>
     <row r="775" ht="14.25" customHeight="1">
-      <c r="V775" s="74"/>
+      <c r="V775" s="73"/>
     </row>
     <row r="776" ht="14.25" customHeight="1">
-      <c r="V776" s="74"/>
+      <c r="V776" s="73"/>
     </row>
     <row r="777" ht="14.25" customHeight="1">
-      <c r="V777" s="74"/>
+      <c r="V777" s="73"/>
     </row>
     <row r="778" ht="14.25" customHeight="1">
-      <c r="V778" s="74"/>
+      <c r="V778" s="73"/>
     </row>
     <row r="779" ht="14.25" customHeight="1">
-      <c r="V779" s="74"/>
+      <c r="V779" s="73"/>
     </row>
     <row r="780" ht="14.25" customHeight="1">
-      <c r="V780" s="74"/>
+      <c r="V780" s="73"/>
     </row>
     <row r="781" ht="14.25" customHeight="1">
-      <c r="V781" s="74"/>
+      <c r="V781" s="73"/>
     </row>
     <row r="782" ht="14.25" customHeight="1">
-      <c r="V782" s="74"/>
+      <c r="V782" s="73"/>
     </row>
     <row r="783" ht="14.25" customHeight="1">
-      <c r="V783" s="74"/>
+      <c r="V783" s="73"/>
     </row>
     <row r="784" ht="14.25" customHeight="1">
-      <c r="V784" s="74"/>
+      <c r="V784" s="73"/>
     </row>
     <row r="785" ht="14.25" customHeight="1">
-      <c r="V785" s="74"/>
+      <c r="V785" s="73"/>
     </row>
     <row r="786" ht="14.25" customHeight="1">
-      <c r="V786" s="74"/>
+      <c r="V786" s="73"/>
     </row>
     <row r="787" ht="14.25" customHeight="1">
-      <c r="V787" s="74"/>
+      <c r="V787" s="73"/>
     </row>
     <row r="788" ht="14.25" customHeight="1">
-      <c r="V788" s="74"/>
+      <c r="V788" s="73"/>
     </row>
     <row r="789" ht="14.25" customHeight="1">
-      <c r="V789" s="74"/>
+      <c r="V789" s="73"/>
     </row>
     <row r="790" ht="14.25" customHeight="1">
-      <c r="V790" s="74"/>
+      <c r="V790" s="73"/>
     </row>
     <row r="791" ht="14.25" customHeight="1">
-      <c r="V791" s="74"/>
+      <c r="V791" s="73"/>
     </row>
     <row r="792" ht="14.25" customHeight="1">
-      <c r="V792" s="74"/>
+      <c r="V792" s="73"/>
     </row>
     <row r="793" ht="14.25" customHeight="1">
-      <c r="V793" s="74"/>
+      <c r="V793" s="73"/>
     </row>
     <row r="794" ht="14.25" customHeight="1">
-      <c r="V794" s="74"/>
+      <c r="V794" s="73"/>
     </row>
     <row r="795" ht="14.25" customHeight="1">
-      <c r="V795" s="74"/>
+      <c r="V795" s="73"/>
     </row>
     <row r="796" ht="14.25" customHeight="1">
-      <c r="V796" s="74"/>
+      <c r="V796" s="73"/>
     </row>
     <row r="797" ht="14.25" customHeight="1">
-      <c r="V797" s="74"/>
+      <c r="V797" s="73"/>
     </row>
     <row r="798" ht="14.25" customHeight="1">
-      <c r="V798" s="74"/>
+      <c r="V798" s="73"/>
     </row>
     <row r="799" ht="14.25" customHeight="1">
-      <c r="V799" s="74"/>
+      <c r="V799" s="73"/>
     </row>
     <row r="800" ht="14.25" customHeight="1">
-      <c r="V800" s="74"/>
+      <c r="V800" s="73"/>
     </row>
     <row r="801" ht="14.25" customHeight="1">
-      <c r="V801" s="74"/>
+      <c r="V801" s="73"/>
     </row>
     <row r="802" ht="14.25" customHeight="1">
-      <c r="V802" s="74"/>
+      <c r="V802" s="73"/>
     </row>
     <row r="803" ht="14.25" customHeight="1">
-      <c r="V803" s="74"/>
+      <c r="V803" s="73"/>
     </row>
     <row r="804" ht="14.25" customHeight="1">
-      <c r="V804" s="74"/>
+      <c r="V804" s="73"/>
     </row>
     <row r="805" ht="14.25" customHeight="1">
-      <c r="V805" s="74"/>
+      <c r="V805" s="73"/>
     </row>
     <row r="806" ht="14.25" customHeight="1">
-      <c r="V806" s="74"/>
+      <c r="V806" s="73"/>
     </row>
     <row r="807" ht="14.25" customHeight="1">
-      <c r="V807" s="74"/>
+      <c r="V807" s="73"/>
     </row>
     <row r="808" ht="14.25" customHeight="1">
-      <c r="V808" s="74"/>
+      <c r="V808" s="73"/>
     </row>
     <row r="809" ht="14.25" customHeight="1">
-      <c r="V809" s="74"/>
+      <c r="V809" s="73"/>
     </row>
     <row r="810" ht="14.25" customHeight="1">
-      <c r="V810" s="74"/>
+      <c r="V810" s="73"/>
     </row>
     <row r="811" ht="14.25" customHeight="1">
-      <c r="V811" s="74"/>
+      <c r="V811" s="73"/>
     </row>
     <row r="812" ht="14.25" customHeight="1">
-      <c r="V812" s="74"/>
+      <c r="V812" s="73"/>
     </row>
     <row r="813" ht="14.25" customHeight="1">
-      <c r="V813" s="74"/>
+      <c r="V813" s="73"/>
     </row>
     <row r="814" ht="14.25" customHeight="1">
-      <c r="V814" s="74"/>
+      <c r="V814" s="73"/>
     </row>
     <row r="815" ht="14.25" customHeight="1">
-      <c r="V815" s="74"/>
+      <c r="V815" s="73"/>
     </row>
     <row r="816" ht="14.25" customHeight="1">
-      <c r="V816" s="74"/>
+      <c r="V816" s="73"/>
     </row>
     <row r="817" ht="14.25" customHeight="1">
-      <c r="V817" s="74"/>
+      <c r="V817" s="73"/>
     </row>
     <row r="818" ht="14.25" customHeight="1">
-      <c r="V818" s="74"/>
+      <c r="V818" s="73"/>
     </row>
     <row r="819" ht="14.25" customHeight="1">
-      <c r="V819" s="74"/>
+      <c r="V819" s="73"/>
     </row>
     <row r="820" ht="14.25" customHeight="1">
-      <c r="V820" s="74"/>
+      <c r="V820" s="73"/>
     </row>
     <row r="821" ht="14.25" customHeight="1">
-      <c r="V821" s="74"/>
+      <c r="V821" s="73"/>
     </row>
     <row r="822" ht="14.25" customHeight="1">
-      <c r="V822" s="74"/>
+      <c r="V822" s="73"/>
     </row>
     <row r="823" ht="14.25" customHeight="1">
-      <c r="V823" s="74"/>
+      <c r="V823" s="73"/>
     </row>
     <row r="824" ht="14.25" customHeight="1">
-      <c r="V824" s="74"/>
+      <c r="V824" s="73"/>
     </row>
     <row r="825" ht="14.25" customHeight="1">
-      <c r="V825" s="74"/>
+      <c r="V825" s="73"/>
     </row>
     <row r="826" ht="14.25" customHeight="1">
-      <c r="V826" s="74"/>
+      <c r="V826" s="73"/>
     </row>
     <row r="827" ht="14.25" customHeight="1">
-      <c r="V827" s="74"/>
+      <c r="V827" s="73"/>
     </row>
     <row r="828" ht="14.25" customHeight="1">
-      <c r="V828" s="74"/>
+      <c r="V828" s="73"/>
     </row>
     <row r="829" ht="14.25" customHeight="1">
-      <c r="V829" s="74"/>
+      <c r="V829" s="73"/>
     </row>
     <row r="830" ht="14.25" customHeight="1">
-      <c r="V830" s="74"/>
+      <c r="V830" s="73"/>
     </row>
     <row r="831" ht="14.25" customHeight="1">
-      <c r="V831" s="74"/>
+      <c r="V831" s="73"/>
     </row>
     <row r="832" ht="14.25" customHeight="1">
-      <c r="V832" s="74"/>
+      <c r="V832" s="73"/>
     </row>
     <row r="833" ht="14.25" customHeight="1">
-      <c r="V833" s="74"/>
+      <c r="V833" s="73"/>
     </row>
     <row r="834" ht="14.25" customHeight="1">
-      <c r="V834" s="74"/>
+      <c r="V834" s="73"/>
     </row>
     <row r="835" ht="14.25" customHeight="1">
-      <c r="V835" s="74"/>
+      <c r="V835" s="73"/>
     </row>
     <row r="836" ht="14.25" customHeight="1">
-      <c r="V836" s="74"/>
+      <c r="V836" s="73"/>
     </row>
     <row r="837" ht="14.25" customHeight="1">
-      <c r="V837" s="74"/>
+      <c r="V837" s="73"/>
     </row>
     <row r="838" ht="14.25" customHeight="1">
-      <c r="V838" s="74"/>
+      <c r="V838" s="73"/>
     </row>
     <row r="839" ht="14.25" customHeight="1">
-      <c r="V839" s="74"/>
+      <c r="V839" s="73"/>
     </row>
     <row r="840" ht="14.25" customHeight="1">
-      <c r="V840" s="74"/>
+      <c r="V840" s="73"/>
     </row>
     <row r="841" ht="14.25" customHeight="1">
-      <c r="V841" s="74"/>
+      <c r="V841" s="73"/>
     </row>
     <row r="842" ht="14.25" customHeight="1">
-      <c r="V842" s="74"/>
+      <c r="V842" s="73"/>
     </row>
     <row r="843" ht="14.25" customHeight="1">
-      <c r="V843" s="74"/>
+      <c r="V843" s="73"/>
     </row>
     <row r="844" ht="14.25" customHeight="1">
-      <c r="V844" s="74"/>
+      <c r="V844" s="73"/>
     </row>
     <row r="845" ht="14.25" customHeight="1">
-      <c r="V845" s="74"/>
+      <c r="V845" s="73"/>
     </row>
     <row r="846" ht="14.25" customHeight="1">
-      <c r="V846" s="74"/>
+      <c r="V846" s="73"/>
     </row>
     <row r="847" ht="14.25" customHeight="1">
-      <c r="V847" s="74"/>
+      <c r="V847" s="73"/>
     </row>
     <row r="848" ht="14.25" customHeight="1">
-      <c r="V848" s="74"/>
+      <c r="V848" s="73"/>
     </row>
     <row r="849" ht="14.25" customHeight="1">
-      <c r="V849" s="74"/>
+      <c r="V849" s="73"/>
     </row>
     <row r="850" ht="14.25" customHeight="1">
-      <c r="V850" s="74"/>
+      <c r="V850" s="73"/>
     </row>
     <row r="851" ht="14.25" customHeight="1">
-      <c r="V851" s="74"/>
+      <c r="V851" s="73"/>
     </row>
     <row r="852" ht="14.25" customHeight="1">
-      <c r="V852" s="74"/>
+      <c r="V852" s="73"/>
     </row>
     <row r="853" ht="14.25" customHeight="1">
-      <c r="V853" s="74"/>
+      <c r="V853" s="73"/>
     </row>
     <row r="854" ht="14.25" customHeight="1">
-      <c r="V854" s="74"/>
+      <c r="V854" s="73"/>
     </row>
     <row r="855" ht="14.25" customHeight="1">
-      <c r="V855" s="74"/>
+      <c r="V855" s="73"/>
     </row>
     <row r="856" ht="14.25" customHeight="1">
-      <c r="V856" s="74"/>
+      <c r="V856" s="73"/>
     </row>
     <row r="857" ht="14.25" customHeight="1">
-      <c r="V857" s="74"/>
+      <c r="V857" s="73"/>
     </row>
     <row r="858" ht="14.25" customHeight="1">
-      <c r="V858" s="74"/>
+      <c r="V858" s="73"/>
     </row>
     <row r="859" ht="14.25" customHeight="1">
-      <c r="V859" s="74"/>
+      <c r="V859" s="73"/>
     </row>
     <row r="860" ht="14.25" customHeight="1">
-      <c r="V860" s="74"/>
+      <c r="V860" s="73"/>
     </row>
     <row r="861" ht="14.25" customHeight="1">
-      <c r="V861" s="74"/>
+      <c r="V861" s="73"/>
     </row>
     <row r="862" ht="14.25" customHeight="1">
-      <c r="V862" s="74"/>
+      <c r="V862" s="73"/>
     </row>
     <row r="863" ht="14.25" customHeight="1">
-      <c r="V863" s="74"/>
+      <c r="V863" s="73"/>
     </row>
     <row r="864" ht="14.25" customHeight="1">
-      <c r="V864" s="74"/>
+      <c r="V864" s="73"/>
     </row>
     <row r="865" ht="14.25" customHeight="1">
-      <c r="V865" s="74"/>
+      <c r="V865" s="73"/>
     </row>
     <row r="866" ht="14.25" customHeight="1">
-      <c r="V866" s="74"/>
+      <c r="V866" s="73"/>
     </row>
     <row r="867" ht="14.25" customHeight="1">
-      <c r="V867" s="74"/>
+      <c r="V867" s="73"/>
     </row>
     <row r="868" ht="14.25" customHeight="1">
-      <c r="V868" s="74"/>
+      <c r="V868" s="73"/>
     </row>
     <row r="869" ht="14.25" customHeight="1">
-      <c r="V869" s="74"/>
+      <c r="V869" s="73"/>
     </row>
     <row r="870" ht="14.25" customHeight="1">
-      <c r="V870" s="74"/>
+      <c r="V870" s="73"/>
     </row>
     <row r="871" ht="14.25" customHeight="1">
-      <c r="V871" s="74"/>
+      <c r="V871" s="73"/>
     </row>
     <row r="872" ht="14.25" customHeight="1">
-      <c r="V872" s="74"/>
+      <c r="V872" s="73"/>
     </row>
     <row r="873" ht="14.25" customHeight="1">
-      <c r="V873" s="74"/>
+      <c r="V873" s="73"/>
     </row>
     <row r="874" ht="14.25" customHeight="1">
-      <c r="V874" s="74"/>
+      <c r="V874" s="73"/>
     </row>
     <row r="875" ht="14.25" customHeight="1">
-      <c r="V875" s="74"/>
+      <c r="V875" s="73"/>
     </row>
     <row r="876" ht="14.25" customHeight="1">
-      <c r="V876" s="74"/>
+      <c r="V876" s="73"/>
     </row>
     <row r="877" ht="14.25" customHeight="1">
-      <c r="V877" s="74"/>
+      <c r="V877" s="73"/>
     </row>
     <row r="878" ht="14.25" customHeight="1">
-      <c r="V878" s="74"/>
+      <c r="V878" s="73"/>
     </row>
     <row r="879" ht="14.25" customHeight="1">
-      <c r="V879" s="74"/>
+      <c r="V879" s="73"/>
     </row>
     <row r="880" ht="14.25" customHeight="1">
-      <c r="V880" s="74"/>
+      <c r="V880" s="73"/>
     </row>
     <row r="881" ht="14.25" customHeight="1">
-      <c r="V881" s="74"/>
+      <c r="V881" s="73"/>
     </row>
     <row r="882" ht="14.25" customHeight="1">
-      <c r="V882" s="74"/>
+      <c r="V882" s="73"/>
     </row>
     <row r="883" ht="14.25" customHeight="1">
-      <c r="V883" s="74"/>
+      <c r="V883" s="73"/>
     </row>
     <row r="884" ht="14.25" customHeight="1">
-      <c r="V884" s="74"/>
+      <c r="V884" s="73"/>
     </row>
     <row r="885" ht="14.25" customHeight="1">
-      <c r="V885" s="74"/>
+      <c r="V885" s="73"/>
     </row>
     <row r="886" ht="14.25" customHeight="1">
-      <c r="V886" s="74"/>
+      <c r="V886" s="73"/>
     </row>
     <row r="887" ht="14.25" customHeight="1">
-      <c r="V887" s="74"/>
+      <c r="V887" s="73"/>
     </row>
     <row r="888" ht="14.25" customHeight="1">
-      <c r="V888" s="74"/>
+      <c r="V888" s="73"/>
     </row>
     <row r="889" ht="14.25" customHeight="1">
-      <c r="V889" s="74"/>
+      <c r="V889" s="73"/>
     </row>
     <row r="890" ht="14.25" customHeight="1">
-      <c r="V890" s="74"/>
+      <c r="V890" s="73"/>
     </row>
     <row r="891" ht="14.25" customHeight="1">
-      <c r="V891" s="74"/>
+      <c r="V891" s="73"/>
     </row>
     <row r="892" ht="14.25" customHeight="1">
-      <c r="V892" s="74"/>
+      <c r="V892" s="73"/>
     </row>
     <row r="893" ht="14.25" customHeight="1">
-      <c r="V893" s="74"/>
+      <c r="V893" s="73"/>
     </row>
     <row r="894" ht="14.25" customHeight="1">
-      <c r="V894" s="74"/>
+      <c r="V894" s="73"/>
     </row>
     <row r="895" ht="14.25" customHeight="1">
-      <c r="V895" s="74"/>
+      <c r="V895" s="73"/>
     </row>
     <row r="896" ht="14.25" customHeight="1">
-      <c r="V896" s="74"/>
+      <c r="V896" s="73"/>
     </row>
     <row r="897" ht="14.25" customHeight="1">
-      <c r="V897" s="74"/>
+      <c r="V897" s="73"/>
     </row>
     <row r="898" ht="14.25" customHeight="1">
-      <c r="V898" s="74"/>
+      <c r="V898" s="73"/>
     </row>
     <row r="899" ht="14.25" customHeight="1">
-      <c r="V899" s="74"/>
+      <c r="V899" s="73"/>
     </row>
     <row r="900" ht="14.25" customHeight="1">
-      <c r="V900" s="74"/>
+      <c r="V900" s="73"/>
     </row>
     <row r="901" ht="14.25" customHeight="1">
-      <c r="V901" s="74"/>
+      <c r="V901" s="73"/>
     </row>
     <row r="902" ht="14.25" customHeight="1">
-      <c r="V902" s="74"/>
+      <c r="V902" s="73"/>
     </row>
     <row r="903" ht="14.25" customHeight="1">
-      <c r="V903" s="74"/>
+      <c r="V903" s="73"/>
     </row>
     <row r="904" ht="14.25" customHeight="1">
-      <c r="V904" s="74"/>
+      <c r="V904" s="73"/>
     </row>
     <row r="905" ht="14.25" customHeight="1">
-      <c r="V905" s="74"/>
+      <c r="V905" s="73"/>
     </row>
     <row r="906" ht="14.25" customHeight="1">
-      <c r="V906" s="74"/>
+      <c r="V906" s="73"/>
     </row>
     <row r="907" ht="14.25" customHeight="1">
-      <c r="V907" s="74"/>
+      <c r="V907" s="73"/>
     </row>
     <row r="908" ht="14.25" customHeight="1">
-      <c r="V908" s="74"/>
+      <c r="V908" s="73"/>
     </row>
     <row r="909" ht="14.25" customHeight="1">
-      <c r="V909" s="74"/>
+      <c r="V909" s="73"/>
     </row>
     <row r="910" ht="14.25" customHeight="1">
-      <c r="V910" s="74"/>
+      <c r="V910" s="73"/>
     </row>
     <row r="911" ht="14.25" customHeight="1">
-      <c r="V911" s="74"/>
+      <c r="V911" s="73"/>
     </row>
     <row r="912" ht="14.25" customHeight="1">
-      <c r="V912" s="74"/>
+      <c r="V912" s="73"/>
     </row>
     <row r="913" ht="14.25" customHeight="1">
-      <c r="V913" s="74"/>
+      <c r="V913" s="73"/>
     </row>
     <row r="914" ht="14.25" customHeight="1">
-      <c r="V914" s="74"/>
+      <c r="V914" s="73"/>
     </row>
     <row r="915" ht="14.25" customHeight="1">
-      <c r="V915" s="74"/>
+      <c r="V915" s="73"/>
     </row>
     <row r="916" ht="14.25" customHeight="1">
-      <c r="V916" s="74"/>
+      <c r="V916" s="73"/>
     </row>
     <row r="917" ht="14.25" customHeight="1">
-      <c r="V917" s="74"/>
+      <c r="V917" s="73"/>
     </row>
     <row r="918" ht="14.25" customHeight="1">
-      <c r="V918" s="74"/>
+      <c r="V918" s="73"/>
     </row>
     <row r="919" ht="14.25" customHeight="1">
-      <c r="V919" s="74"/>
+      <c r="V919" s="73"/>
     </row>
     <row r="920" ht="14.25" customHeight="1">
-      <c r="V920" s="74"/>
+      <c r="V920" s="73"/>
     </row>
     <row r="921" ht="14.25" customHeight="1">
-      <c r="V921" s="74"/>
+      <c r="V921" s="73"/>
     </row>
     <row r="922" ht="14.25" customHeight="1">
-      <c r="V922" s="74"/>
+      <c r="V922" s="73"/>
     </row>
     <row r="923" ht="14.25" customHeight="1">
-      <c r="V923" s="74"/>
+      <c r="V923" s="73"/>
     </row>
     <row r="924" ht="14.25" customHeight="1">
-      <c r="V924" s="74"/>
+      <c r="V924" s="73"/>
     </row>
     <row r="925" ht="14.25" customHeight="1">
-      <c r="V925" s="74"/>
+      <c r="V925" s="73"/>
     </row>
     <row r="926" ht="14.25" customHeight="1">
-      <c r="V926" s="74"/>
+      <c r="V926" s="73"/>
     </row>
     <row r="927" ht="14.25" customHeight="1">
-      <c r="V927" s="74"/>
+      <c r="V927" s="73"/>
     </row>
     <row r="928" ht="14.25" customHeight="1">
-      <c r="V928" s="74"/>
+      <c r="V928" s="73"/>
     </row>
     <row r="929" ht="14.25" customHeight="1">
-      <c r="V929" s="74"/>
+      <c r="V929" s="73"/>
     </row>
     <row r="930" ht="14.25" customHeight="1">
-      <c r="V930" s="74"/>
+      <c r="V930" s="73"/>
     </row>
     <row r="931" ht="14.25" customHeight="1">
-      <c r="V931" s="74"/>
+      <c r="V931" s="73"/>
     </row>
     <row r="932" ht="14.25" customHeight="1">
-      <c r="V932" s="74"/>
+      <c r="V932" s="73"/>
     </row>
     <row r="933" ht="14.25" customHeight="1">
-      <c r="V933" s="74"/>
+      <c r="V933" s="73"/>
     </row>
     <row r="934" ht="14.25" customHeight="1">
-      <c r="V934" s="74"/>
+      <c r="V934" s="73"/>
     </row>
     <row r="935" ht="14.25" customHeight="1">
-      <c r="V935" s="74"/>
+      <c r="V935" s="73"/>
     </row>
     <row r="936" ht="14.25" customHeight="1">
-      <c r="V936" s="74"/>
+      <c r="V936" s="73"/>
     </row>
     <row r="937" ht="14.25" customHeight="1">
-      <c r="V937" s="74"/>
+      <c r="V937" s="73"/>
     </row>
     <row r="938" ht="14.25" customHeight="1">
-      <c r="V938" s="74"/>
+      <c r="V938" s="73"/>
     </row>
     <row r="939" ht="14.25" customHeight="1">
-      <c r="V939" s="74"/>
+      <c r="V939" s="73"/>
     </row>
     <row r="940" ht="14.25" customHeight="1">
-      <c r="V940" s="74"/>
+      <c r="V940" s="73"/>
     </row>
     <row r="941" ht="14.25" customHeight="1">
-      <c r="V941" s="74"/>
+      <c r="V941" s="73"/>
     </row>
     <row r="942" ht="14.25" customHeight="1">
-      <c r="V942" s="74"/>
+      <c r="V942" s="73"/>
     </row>
     <row r="943" ht="14.25" customHeight="1">
-      <c r="V943" s="74"/>
+      <c r="V943" s="73"/>
     </row>
     <row r="944" ht="14.25" customHeight="1">
-      <c r="V944" s="74"/>
+      <c r="V944" s="73"/>
     </row>
     <row r="945" ht="14.25" customHeight="1">
-      <c r="V945" s="74"/>
+      <c r="V945" s="73"/>
     </row>
     <row r="946" ht="14.25" customHeight="1">
-      <c r="V946" s="74"/>
+      <c r="V946" s="73"/>
     </row>
     <row r="947" ht="14.25" customHeight="1">
-      <c r="V947" s="74"/>
+      <c r="V947" s="73"/>
     </row>
     <row r="948" ht="14.25" customHeight="1">
-      <c r="V948" s="74"/>
+      <c r="V948" s="73"/>
     </row>
     <row r="949" ht="14.25" customHeight="1">
-      <c r="V949" s="74"/>
+      <c r="V949" s="73"/>
     </row>
     <row r="950" ht="14.25" customHeight="1">
-      <c r="V950" s="74"/>
+      <c r="V950" s="73"/>
     </row>
     <row r="951" ht="14.25" customHeight="1">
-      <c r="V951" s="74"/>
+      <c r="V951" s="73"/>
     </row>
     <row r="952" ht="14.25" customHeight="1">
-      <c r="V952" s="74"/>
+      <c r="V952" s="73"/>
     </row>
     <row r="953" ht="14.25" customHeight="1">
-      <c r="V953" s="74"/>
+      <c r="V953" s="73"/>
     </row>
     <row r="954" ht="14.25" customHeight="1">
-      <c r="V954" s="74"/>
+      <c r="V954" s="73"/>
     </row>
     <row r="955" ht="14.25" customHeight="1">
-      <c r="V955" s="74"/>
+      <c r="V955" s="73"/>
     </row>
     <row r="956" ht="14.25" customHeight="1">
-      <c r="V956" s="74"/>
+      <c r="V956" s="73"/>
     </row>
     <row r="957" ht="14.25" customHeight="1">
-      <c r="V957" s="74"/>
+      <c r="V957" s="73"/>
     </row>
     <row r="958" ht="14.25" customHeight="1">
-      <c r="V958" s="74"/>
+      <c r="V958" s="73"/>
     </row>
     <row r="959" ht="14.25" customHeight="1">
-      <c r="V959" s="74"/>
+      <c r="V959" s="73"/>
     </row>
     <row r="960" ht="14.25" customHeight="1">
-      <c r="V960" s="74"/>
+      <c r="V960" s="73"/>
     </row>
     <row r="961" ht="14.25" customHeight="1">
-      <c r="V961" s="74"/>
+      <c r="V961" s="73"/>
     </row>
     <row r="962" ht="14.25" customHeight="1">
-      <c r="V962" s="74"/>
+      <c r="V962" s="73"/>
     </row>
     <row r="963" ht="14.25" customHeight="1">
-      <c r="V963" s="74"/>
+      <c r="V963" s="73"/>
     </row>
     <row r="964" ht="14.25" customHeight="1">
-      <c r="V964" s="74"/>
+      <c r="V964" s="73"/>
     </row>
     <row r="965" ht="14.25" customHeight="1">
-      <c r="V965" s="74"/>
+      <c r="V965" s="73"/>
     </row>
     <row r="966" ht="14.25" customHeight="1">
-      <c r="V966" s="74"/>
+      <c r="V966" s="73"/>
     </row>
     <row r="967" ht="14.25" customHeight="1">
-      <c r="V967" s="74"/>
+      <c r="V967" s="73"/>
     </row>
     <row r="968" ht="14.25" customHeight="1">
-      <c r="V968" s="74"/>
+      <c r="V968" s="73"/>
     </row>
     <row r="969" ht="14.25" customHeight="1">
-      <c r="V969" s="74"/>
+      <c r="V969" s="73"/>
     </row>
     <row r="970" ht="14.25" customHeight="1">
-      <c r="V970" s="74"/>
+      <c r="V970" s="73"/>
     </row>
     <row r="971" ht="14.25" customHeight="1">
-      <c r="V971" s="74"/>
+      <c r="V971" s="73"/>
     </row>
     <row r="972" ht="14.25" customHeight="1">
-      <c r="V972" s="74"/>
+      <c r="V972" s="73"/>
     </row>
     <row r="973" ht="14.25" customHeight="1">
-      <c r="V973" s="74"/>
+      <c r="V973" s="73"/>
     </row>
     <row r="974" ht="14.25" customHeight="1">
-      <c r="V974" s="74"/>
+      <c r="V974" s="73"/>
     </row>
     <row r="975" ht="14.25" customHeight="1">
-      <c r="V975" s="74"/>
+      <c r="V975" s="73"/>
     </row>
     <row r="976" ht="14.25" customHeight="1">
-      <c r="V976" s="74"/>
+      <c r="V976" s="73"/>
     </row>
     <row r="977" ht="14.25" customHeight="1">
-      <c r="V977" s="74"/>
+      <c r="V977" s="73"/>
     </row>
     <row r="978" ht="14.25" customHeight="1">
-      <c r="V978" s="74"/>
+      <c r="V978" s="73"/>
     </row>
     <row r="979" ht="14.25" customHeight="1">
-      <c r="V979" s="74"/>
+      <c r="V979" s="73"/>
     </row>
     <row r="980" ht="14.25" customHeight="1">
-      <c r="V980" s="74"/>
+      <c r="V980" s="73"/>
     </row>
     <row r="981" ht="14.25" customHeight="1">
-      <c r="V981" s="74"/>
+      <c r="V981" s="73"/>
     </row>
     <row r="982" ht="14.25" customHeight="1">
-      <c r="V982" s="74"/>
+      <c r="V982" s="73"/>
     </row>
     <row r="983" ht="14.25" customHeight="1">
-      <c r="V983" s="74"/>
+      <c r="V983" s="73"/>
     </row>
     <row r="984" ht="14.25" customHeight="1">
-      <c r="V984" s="74"/>
+      <c r="V984" s="73"/>
     </row>
     <row r="985" ht="14.25" customHeight="1">
-      <c r="V985" s="74"/>
+      <c r="V985" s="73"/>
     </row>
     <row r="986" ht="14.25" customHeight="1">
-      <c r="V986" s="74"/>
+      <c r="V986" s="73"/>
     </row>
     <row r="987" ht="14.25" customHeight="1">
-      <c r="V987" s="74"/>
+      <c r="V987" s="73"/>
     </row>
     <row r="988" ht="14.25" customHeight="1">
-      <c r="V988" s="74"/>
+      <c r="V988" s="73"/>
     </row>
     <row r="989" ht="14.25" customHeight="1">
-      <c r="V989" s="74"/>
+      <c r="V989" s="73"/>
     </row>
     <row r="990" ht="14.25" customHeight="1">
-      <c r="V990" s="74"/>
+      <c r="V990" s="73"/>
     </row>
     <row r="991" ht="14.25" customHeight="1">
-      <c r="V991" s="74"/>
+      <c r="V991" s="73"/>
     </row>
     <row r="992" ht="14.25" customHeight="1">
-      <c r="V992" s="74"/>
+      <c r="V992" s="73"/>
     </row>
     <row r="993" ht="14.25" customHeight="1">
-      <c r="V993" s="74"/>
+      <c r="V993" s="73"/>
     </row>
     <row r="994" ht="14.25" customHeight="1">
-      <c r="V994" s="74"/>
+      <c r="V994" s="73"/>
     </row>
     <row r="995" ht="14.25" customHeight="1">
-      <c r="V995" s="74"/>
+      <c r="V995" s="73"/>
     </row>
     <row r="996" ht="14.25" customHeight="1">
-      <c r="V996" s="74"/>
+      <c r="V996" s="73"/>
     </row>
     <row r="997" ht="14.25" customHeight="1">
-      <c r="V997" s="74"/>
+      <c r="V997" s="73"/>
     </row>
     <row r="998" ht="14.25" customHeight="1">
-      <c r="V998" s="74"/>
+      <c r="V998" s="73"/>
     </row>
     <row r="999" ht="14.25" customHeight="1">
-      <c r="V999" s="74"/>
+      <c r="V999" s="73"/>
     </row>
     <row r="1000" ht="14.25" customHeight="1">
-      <c r="V1000" s="74"/>
+      <c r="V1000" s="73"/>
     </row>
     <row r="1001" ht="14.25" customHeight="1">
-      <c r="V1001" s="74"/>
+      <c r="V1001" s="73"/>
     </row>
     <row r="1002" ht="14.25" customHeight="1">
-      <c r="V1002" s="74"/>
+      <c r="V1002" s="73"/>
     </row>
     <row r="1003" ht="14.25" customHeight="1">
-      <c r="V1003" s="74"/>
+      <c r="V1003" s="73"/>
     </row>
     <row r="1004" ht="14.25" customHeight="1">
-      <c r="V1004" s="74"/>
+      <c r="V1004" s="73"/>
     </row>
     <row r="1005" ht="14.25" customHeight="1">
-      <c r="V1005" s="74"/>
+      <c r="V1005" s="73"/>
     </row>
     <row r="1006" ht="14.25" customHeight="1">
-      <c r="V1006" s="74"/>
+      <c r="V1006" s="73"/>
     </row>
     <row r="1007" ht="14.25" customHeight="1">
-      <c r="V1007" s="74"/>
+      <c r="V1007" s="73"/>
     </row>
     <row r="1008" ht="14.25" customHeight="1">
-      <c r="V1008" s="74"/>
+      <c r="V1008" s="73"/>
     </row>
     <row r="1009" ht="14.25" customHeight="1">
-      <c r="V1009" s="74"/>
+      <c r="V1009" s="73"/>
     </row>
     <row r="1010" ht="14.25" customHeight="1">
-      <c r="V1010" s="74"/>
+      <c r="V1010" s="73"/>
     </row>
     <row r="1011" ht="14.25" customHeight="1">
-      <c r="V1011" s="74"/>
+      <c r="V1011" s="73"/>
     </row>
     <row r="1012" ht="14.25" customHeight="1">
-      <c r="V1012" s="74"/>
+      <c r="V1012" s="73"/>
     </row>
     <row r="1013" ht="14.25" customHeight="1">
-      <c r="V1013" s="74"/>
+      <c r="V1013" s="73"/>
     </row>
     <row r="1014" ht="14.25" customHeight="1">
-      <c r="V1014" s="74"/>
+      <c r="V1014" s="73"/>
     </row>
     <row r="1015" ht="14.25" customHeight="1">
-      <c r="V1015" s="74"/>
+      <c r="V1015" s="73"/>
     </row>
     <row r="1016" ht="14.25" customHeight="1">
-      <c r="V1016" s="74"/>
+      <c r="V1016" s="73"/>
     </row>
     <row r="1017" ht="14.25" customHeight="1">
-      <c r="V1017" s="74"/>
+      <c r="V1017" s="73"/>
     </row>
     <row r="1018" ht="14.25" customHeight="1">
-      <c r="V1018" s="74"/>
+      <c r="V1018" s="73"/>
     </row>
     <row r="1019" ht="14.25" customHeight="1">
-      <c r="V1019" s="74"/>
+      <c r="V1019" s="73"/>
     </row>
     <row r="1020" ht="14.25" customHeight="1">
-      <c r="V1020" s="74"/>
+      <c r="V1020" s="73"/>
     </row>
     <row r="1021" ht="14.25" customHeight="1">
-      <c r="V1021" s="74"/>
+      <c r="V1021" s="73"/>
     </row>
     <row r="1022" ht="14.25" customHeight="1">
-      <c r="V1022" s="74"/>
+      <c r="V1022" s="73"/>
     </row>
     <row r="1023" ht="14.25" customHeight="1">
-      <c r="V1023" s="74"/>
+      <c r="V1023" s="73"/>
     </row>
     <row r="1024" ht="14.25" customHeight="1">
-      <c r="V1024" s="74"/>
+      <c r="V1024" s="73"/>
     </row>
     <row r="1025" ht="14.25" customHeight="1">
-      <c r="V1025" s="74"/>
+      <c r="V1025" s="73"/>
     </row>
     <row r="1026" ht="14.25" customHeight="1">
-      <c r="V1026" s="74"/>
+      <c r="V1026" s="73"/>
     </row>
     <row r="1027" ht="14.25" customHeight="1">
-      <c r="V1027" s="74"/>
+      <c r="V1027" s="73"/>
     </row>
     <row r="1028" ht="14.25" customHeight="1">
-      <c r="V1028" s="74"/>
+      <c r="V1028" s="73"/>
     </row>
     <row r="1029" ht="14.25" customHeight="1">
-      <c r="V1029" s="74"/>
+      <c r="V1029" s="73"/>
     </row>
     <row r="1030" ht="14.25" customHeight="1">
-      <c r="V1030" s="74"/>
+      <c r="V1030" s="73"/>
     </row>
     <row r="1031" ht="14.25" customHeight="1">
-      <c r="V1031" s="74"/>
+      <c r="V1031" s="73"/>
     </row>
     <row r="1032" ht="14.25" customHeight="1">
-      <c r="V1032" s="74"/>
+      <c r="V1032" s="73"/>
     </row>
     <row r="1033" ht="14.25" customHeight="1">
-      <c r="V1033" s="74"/>
+      <c r="V1033" s="73"/>
     </row>
     <row r="1034" ht="14.25" customHeight="1">
-      <c r="V1034" s="74"/>
+      <c r="V1034" s="73"/>
     </row>
     <row r="1035" ht="14.25" customHeight="1">
-      <c r="V1035" s="74"/>
+      <c r="V1035" s="73"/>
     </row>
     <row r="1036" ht="14.25" customHeight="1">
-      <c r="V1036" s="74"/>
+      <c r="V1036" s="73"/>
     </row>
     <row r="1037" ht="14.25" customHeight="1">
-      <c r="V1037" s="74"/>
+      <c r="V1037" s="73"/>
     </row>
     <row r="1038" ht="14.25" customHeight="1">
-      <c r="V1038" s="74"/>
+      <c r="V1038" s="73"/>
     </row>
     <row r="1039" ht="14.25" customHeight="1">
-      <c r="V1039" s="74"/>
+      <c r="V1039" s="73"/>
     </row>
     <row r="1040" ht="14.25" customHeight="1">
-      <c r="V1040" s="74"/>
+      <c r="V1040" s="73"/>
     </row>
     <row r="1041" ht="14.25" customHeight="1">
-      <c r="V1041" s="74"/>
+      <c r="V1041" s="73"/>
     </row>
     <row r="1042" ht="14.25" customHeight="1">
-      <c r="V1042" s="74"/>
+      <c r="V1042" s="73"/>
     </row>
     <row r="1043" ht="14.25" customHeight="1">
-      <c r="V1043" s="74"/>
+      <c r="V1043" s="73"/>
     </row>
     <row r="1044" ht="14.25" customHeight="1">
-      <c r="V1044" s="74"/>
+      <c r="V1044" s="73"/>
     </row>
     <row r="1045" ht="14.25" customHeight="1">
-      <c r="V1045" s="74"/>
+      <c r="V1045" s="73"/>
     </row>
     <row r="1046" ht="14.25" customHeight="1">
-      <c r="V1046" s="74"/>
+      <c r="V1046" s="73"/>
     </row>
     <row r="1047" ht="14.25" customHeight="1">
-      <c r="V1047" s="74"/>
+      <c r="V1047" s="73"/>
     </row>
     <row r="1048" ht="14.25" customHeight="1">
-      <c r="V1048" s="74"/>
+      <c r="V1048" s="73"/>
     </row>
     <row r="1049" ht="14.25" customHeight="1">
-      <c r="V1049" s="74"/>
+      <c r="V1049" s="73"/>
     </row>
     <row r="1050" ht="14.25" customHeight="1">
-      <c r="V1050" s="74"/>
+      <c r="V1050" s="73"/>
     </row>
     <row r="1051" ht="14.25" customHeight="1">
-      <c r="V1051" s="74"/>
+      <c r="V1051" s="73"/>
     </row>
     <row r="1052" ht="14.25" customHeight="1">
-      <c r="V1052" s="74"/>
+      <c r="V1052" s="73"/>
     </row>
     <row r="1053" ht="14.25" customHeight="1">
-      <c r="V1053" s="74"/>
+      <c r="V1053" s="73"/>
     </row>
     <row r="1054" ht="14.25" customHeight="1">
-      <c r="V1054" s="74"/>
+      <c r="V1054" s="73"/>
     </row>
     <row r="1055" ht="14.25" customHeight="1">
-      <c r="V1055" s="74"/>
+      <c r="V1055" s="73"/>
     </row>
     <row r="1056" ht="14.25" customHeight="1">
-      <c r="V1056" s="74"/>
+      <c r="V1056" s="73"/>
     </row>
     <row r="1057" ht="14.25" customHeight="1">
-      <c r="V1057" s="74"/>
+      <c r="V1057" s="73"/>
     </row>
     <row r="1058" ht="14.25" customHeight="1">
-      <c r="V1058" s="74"/>
+      <c r="V1058" s="73"/>
     </row>
     <row r="1059" ht="14.25" customHeight="1">
-      <c r="V1059" s="74"/>
+      <c r="V1059" s="73"/>
     </row>
     <row r="1060" ht="14.25" customHeight="1">
-      <c r="V1060" s="74"/>
+      <c r="V1060" s="73"/>
     </row>
     <row r="1061" ht="14.25" customHeight="1">
-      <c r="V1061" s="74"/>
+      <c r="V1061" s="73"/>
     </row>
     <row r="1062" ht="14.25" customHeight="1">
-      <c r="V1062" s="74"/>
+      <c r="V1062" s="73"/>
     </row>
     <row r="1063" ht="14.25" customHeight="1">
-      <c r="V1063" s="74"/>
+      <c r="V1063" s="73"/>
     </row>
     <row r="1064" ht="14.25" customHeight="1">
-      <c r="V1064" s="74"/>
+      <c r="V1064" s="73"/>
     </row>
     <row r="1065" ht="14.25" customHeight="1">
-      <c r="V1065" s="74"/>
+      <c r="V1065" s="73"/>
     </row>
     <row r="1066" ht="14.25" customHeight="1">
-      <c r="V1066" s="74"/>
+      <c r="V1066" s="73"/>
     </row>
     <row r="1067" ht="14.25" customHeight="1">
-      <c r="V1067" s="74"/>
+      <c r="V1067" s="73"/>
     </row>
     <row r="1068" ht="14.25" customHeight="1">
-      <c r="V1068" s="74"/>
+      <c r="V1068" s="73"/>
     </row>
     <row r="1069" ht="14.25" customHeight="1">
-      <c r="V1069" s="74"/>
+      <c r="V1069" s="73"/>
     </row>
     <row r="1070" ht="14.25" customHeight="1">
-      <c r="V1070" s="74"/>
+      <c r="V1070" s="73"/>
     </row>
     <row r="1071" ht="14.25" customHeight="1">
-      <c r="V1071" s="74"/>
+      <c r="V1071" s="73"/>
     </row>
     <row r="1072" ht="14.25" customHeight="1">
-      <c r="V1072" s="74"/>
+      <c r="V1072" s="73"/>
     </row>
     <row r="1073" ht="14.25" customHeight="1">
-      <c r="V1073" s="74"/>
+      <c r="V1073" s="73"/>
     </row>
     <row r="1074" ht="14.25" customHeight="1">
-      <c r="V1074" s="74"/>
+      <c r="V1074" s="73"/>
     </row>
     <row r="1075" ht="14.25" customHeight="1">
-      <c r="V1075" s="74"/>
+      <c r="V1075" s="73"/>
     </row>
     <row r="1076" ht="14.25" customHeight="1">
-      <c r="V1076" s="74"/>
+      <c r="V1076" s="73"/>
     </row>
     <row r="1077" ht="14.25" customHeight="1">
-      <c r="V1077" s="74"/>
+      <c r="V1077" s="73"/>
     </row>
     <row r="1078" ht="14.25" customHeight="1">
-      <c r="V1078" s="74"/>
+      <c r="V1078" s="73"/>
     </row>
     <row r="1079" ht="14.25" customHeight="1">
-      <c r="V1079" s="74"/>
+      <c r="V1079" s="73"/>
     </row>
     <row r="1080" ht="14.25" customHeight="1">
-      <c r="V1080" s="74"/>
+      <c r="V1080" s="73"/>
     </row>
     <row r="1081" ht="14.25" customHeight="1">
-      <c r="V1081" s="74"/>
+      <c r="V1081" s="73"/>
     </row>
     <row r="1082" ht="14.25" customHeight="1">
-      <c r="V1082" s="74"/>
+      <c r="V1082" s="73"/>
     </row>
     <row r="1083" ht="14.25" customHeight="1">
-      <c r="V1083" s="74"/>
+      <c r="V1083" s="73"/>
     </row>
     <row r="1084" ht="14.25" customHeight="1">
-      <c r="V1084" s="74"/>
+      <c r="V1084" s="73"/>
     </row>
     <row r="1085" ht="14.25" customHeight="1">
-      <c r="V1085" s="74"/>
+      <c r="V1085" s="73"/>
     </row>
     <row r="1086" ht="14.25" customHeight="1">
-      <c r="V1086" s="74"/>
+      <c r="V1086" s="73"/>
     </row>
     <row r="1087" ht="14.25" customHeight="1">
-      <c r="V1087" s="74"/>
+      <c r="V1087" s="73"/>
     </row>
     <row r="1088" ht="14.25" customHeight="1">
-      <c r="V1088" s="74"/>
+      <c r="V1088" s="73"/>
     </row>
     <row r="1089" ht="14.25" customHeight="1">
-      <c r="V1089" s="74"/>
+      <c r="V1089" s="73"/>
     </row>
     <row r="1090" ht="14.25" customHeight="1">
-      <c r="V1090" s="74"/>
+      <c r="V1090" s="73"/>
     </row>
     <row r="1091" ht="14.25" customHeight="1">
-      <c r="V1091" s="74"/>
+      <c r="V1091" s="73"/>
     </row>
     <row r="1092" ht="14.25" customHeight="1">
-      <c r="V1092" s="74"/>
+      <c r="V1092" s="73"/>
     </row>
     <row r="1093" ht="14.25" customHeight="1">
-      <c r="V1093" s="74"/>
+      <c r="V1093" s="73"/>
     </row>
     <row r="1094" ht="14.25" customHeight="1">
-      <c r="V1094" s="74"/>
+      <c r="V1094" s="73"/>
     </row>
     <row r="1095" ht="14.25" customHeight="1">
-      <c r="V1095" s="74"/>
+      <c r="V1095" s="73"/>
     </row>
     <row r="1096" ht="14.25" customHeight="1">
-      <c r="V1096" s="74"/>
+      <c r="V1096" s="73"/>
     </row>
     <row r="1097" ht="14.25" customHeight="1">
-      <c r="V1097" s="74"/>
+      <c r="V1097" s="73"/>
     </row>
     <row r="1098" ht="14.25" customHeight="1">
-      <c r="V1098" s="74"/>
+      <c r="V1098" s="73"/>
     </row>
     <row r="1099" ht="14.25" customHeight="1">
-      <c r="V1099" s="74"/>
+      <c r="V1099" s="73"/>
     </row>
     <row r="1100" ht="14.25" customHeight="1">
-      <c r="V1100" s="74"/>
+      <c r="V1100" s="73"/>
     </row>
     <row r="1101" ht="14.25" customHeight="1">
-      <c r="V1101" s="74"/>
+      <c r="V1101" s="73"/>
     </row>
     <row r="1102" ht="14.25" customHeight="1">
-      <c r="V1102" s="74"/>
+      <c r="V1102" s="73"/>
     </row>
     <row r="1103" ht="14.25" customHeight="1">
-      <c r="V1103" s="74"/>
+      <c r="V1103" s="73"/>
     </row>
     <row r="1104" ht="14.25" customHeight="1">
-      <c r="V1104" s="74"/>
+      <c r="V1104" s="73"/>
     </row>
     <row r="1105" ht="14.25" customHeight="1">
-      <c r="V1105" s="74"/>
+      <c r="V1105" s="73"/>
     </row>
     <row r="1106" ht="14.25" customHeight="1">
-      <c r="V1106" s="74"/>
+      <c r="V1106" s="73"/>
     </row>
     <row r="1107" ht="14.25" customHeight="1">
-      <c r="V1107" s="74"/>
+      <c r="V1107" s="73"/>
     </row>
     <row r="1108" ht="14.25" customHeight="1">
-      <c r="V1108" s="74"/>
+      <c r="V1108" s="73"/>
     </row>
     <row r="1109" ht="14.25" customHeight="1">
-      <c r="V1109" s="74"/>
+      <c r="V1109" s="73"/>
     </row>
     <row r="1110" ht="14.25" customHeight="1">
-      <c r="V1110" s="74"/>
+      <c r="V1110" s="73"/>
     </row>
     <row r="1111" ht="14.25" customHeight="1">
-      <c r="V1111" s="74"/>
+      <c r="V1111" s="73"/>
     </row>
     <row r="1112" ht="14.25" customHeight="1">
-      <c r="V1112" s="74"/>
+      <c r="V1112" s="73"/>
     </row>
     <row r="1113" ht="14.25" customHeight="1">
-      <c r="V1113" s="74"/>
+      <c r="V1113" s="73"/>
     </row>
     <row r="1114" ht="14.25" customHeight="1">
-      <c r="V1114" s="74"/>
+      <c r="V1114" s="73"/>
     </row>
     <row r="1115" ht="14.25" customHeight="1">
-      <c r="V1115" s="74"/>
+      <c r="V1115" s="73"/>
     </row>
     <row r="1116" ht="14.25" customHeight="1">
-      <c r="V1116" s="74"/>
+      <c r="V1116" s="73"/>
     </row>
     <row r="1117" ht="14.25" customHeight="1">
-      <c r="V1117" s="74"/>
+      <c r="V1117" s="73"/>
     </row>
     <row r="1118" ht="14.25" customHeight="1">
-      <c r="V1118" s="74"/>
+      <c r="V1118" s="73"/>
     </row>
     <row r="1119" ht="14.25" customHeight="1">
-      <c r="V1119" s="74"/>
+      <c r="V1119" s="73"/>
     </row>
     <row r="1120" ht="14.25" customHeight="1">
-      <c r="V1120" s="74"/>
+      <c r="V1120" s="73"/>
     </row>
     <row r="1121" ht="14.25" customHeight="1">
-      <c r="V1121" s="74"/>
+      <c r="V1121" s="73"/>
     </row>
     <row r="1122" ht="14.25" customHeight="1">
-      <c r="V1122" s="74"/>
+      <c r="V1122" s="73"/>
     </row>
     <row r="1123" ht="14.25" customHeight="1">
-      <c r="V1123" s="74"/>
+      <c r="V1123" s="73"/>
     </row>
     <row r="1124" ht="14.25" customHeight="1">
-      <c r="V1124" s="74"/>
+      <c r="V1124" s="73"/>
     </row>
     <row r="1125" ht="14.25" customHeight="1">
-      <c r="V1125" s="74"/>
+      <c r="V1125" s="73"/>
     </row>
     <row r="1126" ht="14.25" customHeight="1">
-      <c r="V1126" s="74"/>
+      <c r="V1126" s="73"/>
     </row>
     <row r="1127" ht="14.25" customHeight="1">
-      <c r="V1127" s="74"/>
+      <c r="V1127" s="73"/>
     </row>
     <row r="1128" ht="14.25" customHeight="1">
-      <c r="V1128" s="74"/>
+      <c r="V1128" s="73"/>
     </row>
     <row r="1129" ht="14.25" customHeight="1">
-      <c r="V1129" s="74"/>
+      <c r="V1129" s="73"/>
     </row>
     <row r="1130" ht="14.25" customHeight="1">
-      <c r="V1130" s="74"/>
+      <c r="V1130" s="73"/>
     </row>
     <row r="1131" ht="14.25" customHeight="1">
-      <c r="V1131" s="74"/>
+      <c r="V1131" s="73"/>
     </row>
     <row r="1132" ht="14.25" customHeight="1">
-      <c r="V1132" s="74"/>
+      <c r="V1132" s="73"/>
     </row>
     <row r="1133" ht="14.25" customHeight="1">
-      <c r="V1133" s="74"/>
+      <c r="V1133" s="73"/>
     </row>
     <row r="1134" ht="14.25" customHeight="1">
-      <c r="V1134" s="74"/>
+      <c r="V1134" s="73"/>
     </row>
     <row r="1135" ht="14.25" customHeight="1">
-      <c r="V1135" s="74"/>
+      <c r="V1135" s="73"/>
     </row>
     <row r="1136" ht="14.25" customHeight="1">
-      <c r="V1136" s="74"/>
+      <c r="V1136" s="73"/>
     </row>
     <row r="1137" ht="14.25" customHeight="1">
-      <c r="V1137" s="74"/>
+      <c r="V1137" s="73"/>
     </row>
     <row r="1138" ht="14.25" customHeight="1">
-      <c r="V1138" s="74"/>
+      <c r="V1138" s="73"/>
     </row>
     <row r="1139" ht="14.25" customHeight="1">
-      <c r="V1139" s="74"/>
+      <c r="V1139" s="73"/>
     </row>
     <row r="1140" ht="14.25" customHeight="1">
-      <c r="V1140" s="74"/>
+      <c r="V1140" s="73"/>
     </row>
   </sheetData>
   <autoFilter ref="$B$1:$AA$202"/>
